--- a/covid19/data_covid19_lab_by_time_2021-04-19.xlsx
+++ b/covid19/data_covid19_lab_by_time_2021-04-19.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P385"/>
+  <dimension ref="A1:P384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,16 +496,16 @@
         <v>37</v>
       </c>
       <c r="L2" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="M2">
-        <v>102352</v>
+        <v>3739</v>
       </c>
       <c r="N2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="P2" s="2">
         <v>44305</v>
@@ -560,16 +560,16 @@
         <v>37</v>
       </c>
       <c r="L3" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="M3">
-        <v>3739</v>
+        <v>3362</v>
       </c>
       <c r="N3">
         <v>198</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="P3" s="2">
         <v>44305</v>
@@ -624,16 +624,16 @@
         <v>37</v>
       </c>
       <c r="L4" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="M4">
-        <v>3362</v>
+        <v>3392</v>
       </c>
       <c r="N4">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="O4">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="P4" s="2">
         <v>44305</v>
@@ -688,16 +688,16 @@
         <v>37</v>
       </c>
       <c r="L5" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="M5">
-        <v>3392</v>
+        <v>1298</v>
       </c>
       <c r="N5">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="O5">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="P5" s="2">
         <v>44305</v>
@@ -752,16 +752,16 @@
         <v>37</v>
       </c>
       <c r="L6" s="2">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="M6">
-        <v>1298</v>
+        <v>1046</v>
       </c>
       <c r="N6">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O6">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="P6" s="2">
         <v>44305</v>
@@ -800,11 +800,11 @@
         <v>2020</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2020-14</t>
+          <t>2020-15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -813,19 +813,19 @@
         </is>
       </c>
       <c r="K7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="M7">
-        <v>1046</v>
+        <v>3370</v>
       </c>
       <c r="N7">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="O7">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="P7" s="2">
         <v>44305</v>
@@ -880,16 +880,16 @@
         <v>38</v>
       </c>
       <c r="L8" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="M8">
-        <v>3370</v>
+        <v>2830</v>
       </c>
       <c r="N8">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="P8" s="2">
         <v>44305</v>
@@ -944,13 +944,13 @@
         <v>38</v>
       </c>
       <c r="L9" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="M9">
-        <v>2830</v>
+        <v>2170</v>
       </c>
       <c r="N9">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="O9">
         <v>4.7</v>
@@ -1008,16 +1008,16 @@
         <v>38</v>
       </c>
       <c r="L10" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="M10">
-        <v>2170</v>
+        <v>1227</v>
       </c>
       <c r="N10">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O10">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="P10" s="2">
         <v>44305</v>
@@ -1072,16 +1072,16 @@
         <v>38</v>
       </c>
       <c r="L11" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="M11">
-        <v>1227</v>
+        <v>1286</v>
       </c>
       <c r="N11">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="O11">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="P11" s="2">
         <v>44305</v>
@@ -1136,16 +1136,16 @@
         <v>38</v>
       </c>
       <c r="L12" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="M12">
-        <v>1286</v>
+        <v>1310</v>
       </c>
       <c r="N12">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="P12" s="2">
         <v>44305</v>
@@ -1200,16 +1200,16 @@
         <v>38</v>
       </c>
       <c r="L13" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="M13">
-        <v>1310</v>
+        <v>1169</v>
       </c>
       <c r="N13">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="O13">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="P13" s="2">
         <v>44305</v>
@@ -1248,11 +1248,11 @@
         <v>2020</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2020-15</t>
+          <t>2020-16</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1261,19 +1261,19 @@
         </is>
       </c>
       <c r="K14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="M14">
-        <v>1169</v>
+        <v>1240</v>
       </c>
       <c r="N14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O14">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="P14" s="2">
         <v>44305</v>
@@ -1328,16 +1328,16 @@
         <v>39</v>
       </c>
       <c r="L15" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="M15">
-        <v>1240</v>
+        <v>3246</v>
       </c>
       <c r="N15">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="O15">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="P15" s="2">
         <v>44305</v>
@@ -1392,16 +1392,16 @@
         <v>39</v>
       </c>
       <c r="L16" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="M16">
-        <v>3246</v>
+        <v>3326</v>
       </c>
       <c r="N16">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P16" s="2">
         <v>44305</v>
@@ -1456,16 +1456,16 @@
         <v>39</v>
       </c>
       <c r="L17" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="M17">
-        <v>3326</v>
+        <v>3030</v>
       </c>
       <c r="N17">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P17" s="2">
         <v>44305</v>
@@ -1520,16 +1520,16 @@
         <v>39</v>
       </c>
       <c r="L18" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="M18">
-        <v>3030</v>
+        <v>3023</v>
       </c>
       <c r="N18">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O18">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="P18" s="2">
         <v>44305</v>
@@ -1584,16 +1584,16 @@
         <v>39</v>
       </c>
       <c r="L19" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="M19">
-        <v>3023</v>
+        <v>1127</v>
       </c>
       <c r="N19">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P19" s="2">
         <v>44305</v>
@@ -1648,16 +1648,16 @@
         <v>39</v>
       </c>
       <c r="L20" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="M20">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="N20">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P20" s="2">
         <v>44305</v>
@@ -1696,11 +1696,11 @@
         <v>2020</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2020-16</t>
+          <t>2020-17</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1709,19 +1709,19 @@
         </is>
       </c>
       <c r="K21">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="M21">
-        <v>1107</v>
+        <v>3692</v>
       </c>
       <c r="N21">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P21" s="2">
         <v>44305</v>
@@ -1776,13 +1776,13 @@
         <v>40</v>
       </c>
       <c r="L22" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="M22">
-        <v>3692</v>
+        <v>3503</v>
       </c>
       <c r="N22">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O22">
         <v>2.2</v>
@@ -1840,16 +1840,16 @@
         <v>40</v>
       </c>
       <c r="L23" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="M23">
-        <v>3503</v>
+        <v>3269</v>
       </c>
       <c r="N23">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P23" s="2">
         <v>44305</v>
@@ -1904,13 +1904,13 @@
         <v>40</v>
       </c>
       <c r="L24" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="M24">
-        <v>3269</v>
+        <v>2906</v>
       </c>
       <c r="N24">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O24">
         <v>2.3</v>
@@ -1968,16 +1968,16 @@
         <v>40</v>
       </c>
       <c r="L25" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="M25">
-        <v>2906</v>
+        <v>3228</v>
       </c>
       <c r="N25">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O25">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="P25" s="2">
         <v>44305</v>
@@ -2032,16 +2032,16 @@
         <v>40</v>
       </c>
       <c r="L26" s="2">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="M26">
-        <v>3228</v>
+        <v>1107</v>
       </c>
       <c r="N26">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="O26">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="P26" s="2">
         <v>44305</v>
@@ -2096,16 +2096,16 @@
         <v>40</v>
       </c>
       <c r="L27" s="2">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="M27">
-        <v>1107</v>
+        <v>936</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="P27" s="2">
         <v>44305</v>
@@ -2144,11 +2144,11 @@
         <v>2020</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2020-17</t>
+          <t>2020-18</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="K28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L28" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="M28">
-        <v>936</v>
+        <v>4033</v>
       </c>
       <c r="N28">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="P28" s="2">
         <v>44305</v>
@@ -2224,16 +2224,16 @@
         <v>41</v>
       </c>
       <c r="L29" s="2">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="M29">
-        <v>4033</v>
+        <v>4063</v>
       </c>
       <c r="N29">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="O29">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="P29" s="2">
         <v>44305</v>
@@ -2288,16 +2288,16 @@
         <v>41</v>
       </c>
       <c r="L30" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="M30">
-        <v>4063</v>
+        <v>3915</v>
       </c>
       <c r="N30">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O30">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2">
         <v>44305</v>
@@ -2352,16 +2352,16 @@
         <v>41</v>
       </c>
       <c r="L31" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="M31">
-        <v>3915</v>
+        <v>4400</v>
       </c>
       <c r="N31">
         <v>39</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P31" s="2">
         <v>44305</v>
@@ -2416,16 +2416,16 @@
         <v>41</v>
       </c>
       <c r="L32" s="2">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="M32">
-        <v>4400</v>
+        <v>1467</v>
       </c>
       <c r="N32">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O32">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="P32" s="2">
         <v>44305</v>
@@ -2480,16 +2480,16 @@
         <v>41</v>
       </c>
       <c r="L33" s="2">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="M33">
-        <v>1467</v>
+        <v>1532</v>
       </c>
       <c r="N33">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O33">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="P33" s="2">
         <v>44305</v>
@@ -2544,16 +2544,16 @@
         <v>41</v>
       </c>
       <c r="L34" s="2">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="M34">
-        <v>1532</v>
+        <v>1216</v>
       </c>
       <c r="N34">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="O34">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="P34" s="2">
         <v>44305</v>
@@ -2592,11 +2592,11 @@
         <v>2020</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2020-18</t>
+          <t>2020-19</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2605,19 +2605,19 @@
         </is>
       </c>
       <c r="K35">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L35" s="2">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="M35">
-        <v>1216</v>
+        <v>4684</v>
       </c>
       <c r="N35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2">
         <v>44305</v>
@@ -2672,13 +2672,13 @@
         <v>42</v>
       </c>
       <c r="L36" s="2">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="M36">
-        <v>4684</v>
+        <v>4273</v>
       </c>
       <c r="N36">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2736,16 +2736,16 @@
         <v>42</v>
       </c>
       <c r="L37" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="M37">
-        <v>4273</v>
+        <v>4245</v>
       </c>
       <c r="N37">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P37" s="2">
         <v>44305</v>
@@ -2800,16 +2800,16 @@
         <v>42</v>
       </c>
       <c r="L38" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="M38">
-        <v>4245</v>
+        <v>3723</v>
       </c>
       <c r="N38">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O38">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P38" s="2">
         <v>44305</v>
@@ -2864,16 +2864,16 @@
         <v>42</v>
       </c>
       <c r="L39" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="M39">
-        <v>3723</v>
+        <v>3764</v>
       </c>
       <c r="N39">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="O39">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P39" s="2">
         <v>44305</v>
@@ -2928,16 +2928,16 @@
         <v>42</v>
       </c>
       <c r="L40" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="M40">
-        <v>3764</v>
+        <v>1293</v>
       </c>
       <c r="N40">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="O40">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="P40" s="2">
         <v>44305</v>
@@ -2992,16 +2992,16 @@
         <v>42</v>
       </c>
       <c r="L41" s="2">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="M41">
-        <v>1293</v>
+        <v>992</v>
       </c>
       <c r="N41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O41">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P41" s="2">
         <v>44305</v>
@@ -3040,11 +3040,11 @@
         <v>2020</v>
       </c>
       <c r="H42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2020-19</t>
+          <t>2020-20</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3053,19 +3053,19 @@
         </is>
       </c>
       <c r="K42">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L42" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="M42">
-        <v>992</v>
+        <v>4379</v>
       </c>
       <c r="N42">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O42">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P42" s="2">
         <v>44305</v>
@@ -3120,16 +3120,16 @@
         <v>43</v>
       </c>
       <c r="L43" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="M43">
-        <v>4379</v>
+        <v>4779</v>
       </c>
       <c r="N43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O43">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P43" s="2">
         <v>44305</v>
@@ -3184,10 +3184,10 @@
         <v>43</v>
       </c>
       <c r="L44" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="M44">
-        <v>4779</v>
+        <v>4452</v>
       </c>
       <c r="N44">
         <v>19</v>
@@ -3248,16 +3248,16 @@
         <v>43</v>
       </c>
       <c r="L45" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="M45">
-        <v>4452</v>
+        <v>4185</v>
       </c>
       <c r="N45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O45">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P45" s="2">
         <v>44305</v>
@@ -3312,13 +3312,13 @@
         <v>43</v>
       </c>
       <c r="L46" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="M46">
-        <v>4185</v>
+        <v>4159</v>
       </c>
       <c r="N46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O46">
         <v>0.5</v>
@@ -3376,16 +3376,16 @@
         <v>43</v>
       </c>
       <c r="L47" s="2">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="M47">
-        <v>4159</v>
+        <v>1298</v>
       </c>
       <c r="N47">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2">
         <v>44305</v>
@@ -3440,16 +3440,16 @@
         <v>43</v>
       </c>
       <c r="L48" s="2">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="M48">
-        <v>1298</v>
+        <v>663</v>
       </c>
       <c r="N48">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P48" s="2">
         <v>44305</v>
@@ -3488,11 +3488,11 @@
         <v>2020</v>
       </c>
       <c r="H49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2020-20</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3501,19 +3501,19 @@
         </is>
       </c>
       <c r="K49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L49" s="2">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="M49">
-        <v>663</v>
+        <v>4396</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O49">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P49" s="2">
         <v>44305</v>
@@ -3568,13 +3568,13 @@
         <v>44</v>
       </c>
       <c r="L50" s="2">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="M50">
-        <v>4396</v>
+        <v>4643</v>
       </c>
       <c r="N50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O50">
         <v>0.4</v>
@@ -3632,16 +3632,16 @@
         <v>44</v>
       </c>
       <c r="L51" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="M51">
-        <v>4643</v>
+        <v>3936</v>
       </c>
       <c r="N51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O51">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P51" s="2">
         <v>44305</v>
@@ -3696,16 +3696,16 @@
         <v>44</v>
       </c>
       <c r="L52" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="M52">
-        <v>3936</v>
+        <v>1135</v>
       </c>
       <c r="N52">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O52">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="P52" s="2">
         <v>44305</v>
@@ -3760,16 +3760,16 @@
         <v>44</v>
       </c>
       <c r="L53" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="M53">
-        <v>1135</v>
+        <v>3322</v>
       </c>
       <c r="N53">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O53">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P53" s="2">
         <v>44305</v>
@@ -3824,16 +3824,16 @@
         <v>44</v>
       </c>
       <c r="L54" s="2">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="M54">
-        <v>3322</v>
+        <v>1036</v>
       </c>
       <c r="N54">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O54">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P54" s="2">
         <v>44305</v>
@@ -3888,16 +3888,16 @@
         <v>44</v>
       </c>
       <c r="L55" s="2">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="M55">
-        <v>1036</v>
+        <v>896</v>
       </c>
       <c r="N55">
         <v>6</v>
       </c>
       <c r="O55">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P55" s="2">
         <v>44305</v>
@@ -3936,11 +3936,11 @@
         <v>2020</v>
       </c>
       <c r="H56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2020-22</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3949,19 +3949,19 @@
         </is>
       </c>
       <c r="K56">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L56" s="2">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="M56">
-        <v>896</v>
+        <v>4054</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O56">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="P56" s="2">
         <v>44305</v>
@@ -4016,16 +4016,16 @@
         <v>45</v>
       </c>
       <c r="L57" s="2">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="M57">
-        <v>4054</v>
+        <v>3446</v>
       </c>
       <c r="N57">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O57">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P57" s="2">
         <v>44305</v>
@@ -4080,16 +4080,16 @@
         <v>45</v>
       </c>
       <c r="L58" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="M58">
-        <v>3446</v>
+        <v>3269</v>
       </c>
       <c r="N58">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P58" s="2">
         <v>44305</v>
@@ -4144,16 +4144,16 @@
         <v>45</v>
       </c>
       <c r="L59" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="M59">
-        <v>3269</v>
+        <v>2770</v>
       </c>
       <c r="N59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O59">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P59" s="2">
         <v>44305</v>
@@ -4208,10 +4208,10 @@
         <v>45</v>
       </c>
       <c r="L60" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="M60">
-        <v>2770</v>
+        <v>2578</v>
       </c>
       <c r="N60">
         <v>16</v>
@@ -4272,16 +4272,16 @@
         <v>45</v>
       </c>
       <c r="L61" s="2">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="M61">
-        <v>2578</v>
+        <v>812</v>
       </c>
       <c r="N61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2">
         <v>44305</v>
@@ -4336,16 +4336,16 @@
         <v>45</v>
       </c>
       <c r="L62" s="2">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="M62">
-        <v>812</v>
+        <v>630</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P62" s="2">
         <v>44305</v>
@@ -4384,11 +4384,11 @@
         <v>2020</v>
       </c>
       <c r="H63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2020-22</t>
+          <t>2020-23</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="K63">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L63" s="2">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="M63">
-        <v>630</v>
+        <v>738</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O63">
         <v>0.9</v>
@@ -4464,16 +4464,16 @@
         <v>46</v>
       </c>
       <c r="L64" s="2">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="M64">
-        <v>738</v>
+        <v>3814</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="O64">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P64" s="2">
         <v>44305</v>
@@ -4528,16 +4528,16 @@
         <v>46</v>
       </c>
       <c r="L65" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="M65">
-        <v>3814</v>
+        <v>3127</v>
       </c>
       <c r="N65">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="O65">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P65" s="2">
         <v>44305</v>
@@ -4592,16 +4592,16 @@
         <v>46</v>
       </c>
       <c r="L66" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="M66">
-        <v>3127</v>
+        <v>2911</v>
       </c>
       <c r="N66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O66">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P66" s="2">
         <v>44305</v>
@@ -4656,16 +4656,16 @@
         <v>46</v>
       </c>
       <c r="L67" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="M67">
-        <v>2911</v>
+        <v>2904</v>
       </c>
       <c r="N67">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O67">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P67" s="2">
         <v>44305</v>
@@ -4720,16 +4720,16 @@
         <v>46</v>
       </c>
       <c r="L68" s="2">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="M68">
-        <v>2904</v>
+        <v>944</v>
       </c>
       <c r="N68">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P68" s="2">
         <v>44305</v>
@@ -4784,16 +4784,16 @@
         <v>46</v>
       </c>
       <c r="L69" s="2">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="M69">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="N69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P69" s="2">
         <v>44305</v>
@@ -4832,11 +4832,11 @@
         <v>2020</v>
       </c>
       <c r="H70">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2020-23</t>
+          <t>2020-24</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4845,19 +4845,19 @@
         </is>
       </c>
       <c r="K70">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L70" s="2">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="M70">
-        <v>939</v>
+        <v>5736</v>
       </c>
       <c r="N70">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="O70">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="P70" s="2">
         <v>44305</v>
@@ -4912,16 +4912,16 @@
         <v>47</v>
       </c>
       <c r="L71" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="M71">
-        <v>5736</v>
+        <v>5647</v>
       </c>
       <c r="N71">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O71">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P71" s="2">
         <v>44305</v>
@@ -4976,16 +4976,16 @@
         <v>47</v>
       </c>
       <c r="L72" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="M72">
-        <v>5647</v>
+        <v>4548</v>
       </c>
       <c r="N72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O72">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P72" s="2">
         <v>44305</v>
@@ -5040,16 +5040,16 @@
         <v>47</v>
       </c>
       <c r="L73" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="M73">
-        <v>4548</v>
+        <v>4859</v>
       </c>
       <c r="N73">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O73">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P73" s="2">
         <v>44305</v>
@@ -5104,16 +5104,16 @@
         <v>47</v>
       </c>
       <c r="L74" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="M74">
-        <v>4859</v>
+        <v>4622</v>
       </c>
       <c r="N74">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O74">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P74" s="2">
         <v>44305</v>
@@ -5168,16 +5168,16 @@
         <v>47</v>
       </c>
       <c r="L75" s="2">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="M75">
-        <v>4622</v>
+        <v>1242</v>
       </c>
       <c r="N75">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P75" s="2">
         <v>44305</v>
@@ -5232,16 +5232,16 @@
         <v>47</v>
       </c>
       <c r="L76" s="2">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="M76">
-        <v>1242</v>
+        <v>1129</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P76" s="2">
         <v>44305</v>
@@ -5280,11 +5280,11 @@
         <v>2020</v>
       </c>
       <c r="H77">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2020-24</t>
+          <t>2020-25</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5293,19 +5293,19 @@
         </is>
       </c>
       <c r="K77">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L77" s="2">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="M77">
-        <v>1129</v>
+        <v>5835</v>
       </c>
       <c r="N77">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="O77">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P77" s="2">
         <v>44305</v>
@@ -5360,16 +5360,16 @@
         <v>48</v>
       </c>
       <c r="L78" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="M78">
-        <v>5835</v>
+        <v>5422</v>
       </c>
       <c r="N78">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O78">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P78" s="2">
         <v>44305</v>
@@ -5424,16 +5424,16 @@
         <v>48</v>
       </c>
       <c r="L79" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="M79">
-        <v>5422</v>
+        <v>4970</v>
       </c>
       <c r="N79">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="O79">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P79" s="2">
         <v>44305</v>
@@ -5488,13 +5488,13 @@
         <v>48</v>
       </c>
       <c r="L80" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="M80">
-        <v>4970</v>
+        <v>4552</v>
       </c>
       <c r="N80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O80">
         <v>0.3</v>
@@ -5552,16 +5552,16 @@
         <v>48</v>
       </c>
       <c r="L81" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="M81">
-        <v>4552</v>
+        <v>3795</v>
       </c>
       <c r="N81">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O81">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P81" s="2">
         <v>44305</v>
@@ -5616,16 +5616,16 @@
         <v>48</v>
       </c>
       <c r="L82" s="2">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="M82">
-        <v>3795</v>
+        <v>1059</v>
       </c>
       <c r="N82">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O82">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P82" s="2">
         <v>44305</v>
@@ -5680,16 +5680,16 @@
         <v>48</v>
       </c>
       <c r="L83" s="2">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="M83">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="N83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O83">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P83" s="2">
         <v>44305</v>
@@ -5728,11 +5728,11 @@
         <v>2020</v>
       </c>
       <c r="H84">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2020-25</t>
+          <t>2020-26</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="K84">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L84" s="2">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="M84">
-        <v>1030</v>
+        <v>5012</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P84" s="2">
         <v>44305</v>
@@ -5808,16 +5808,16 @@
         <v>49</v>
       </c>
       <c r="L85" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="M85">
-        <v>5012</v>
+        <v>4653</v>
       </c>
       <c r="N85">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="O85">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P85" s="2">
         <v>44305</v>
@@ -5872,16 +5872,16 @@
         <v>49</v>
       </c>
       <c r="L86" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="M86">
-        <v>4653</v>
+        <v>4612</v>
       </c>
       <c r="N86">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O86">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P86" s="2">
         <v>44305</v>
@@ -5936,16 +5936,16 @@
         <v>49</v>
       </c>
       <c r="L87" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="M87">
-        <v>4612</v>
+        <v>4163</v>
       </c>
       <c r="N87">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O87">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P87" s="2">
         <v>44305</v>
@@ -6000,16 +6000,16 @@
         <v>49</v>
       </c>
       <c r="L88" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="M88">
-        <v>4163</v>
+        <v>3913</v>
       </c>
       <c r="N88">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O88">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P88" s="2">
         <v>44305</v>
@@ -6064,16 +6064,16 @@
         <v>49</v>
       </c>
       <c r="L89" s="2">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="M89">
-        <v>3913</v>
+        <v>1106</v>
       </c>
       <c r="N89">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O89">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="P89" s="2">
         <v>44305</v>
@@ -6128,16 +6128,16 @@
         <v>49</v>
       </c>
       <c r="L90" s="2">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="M90">
-        <v>1106</v>
+        <v>993</v>
       </c>
       <c r="N90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="P90" s="2">
         <v>44305</v>
@@ -6176,32 +6176,32 @@
         <v>2020</v>
       </c>
       <c r="H91">
+        <v>27</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2020-27</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K91">
+        <v>50</v>
+      </c>
+      <c r="L91" s="2">
+        <v>44011</v>
+      </c>
+      <c r="M91">
+        <v>5919</v>
+      </c>
+      <c r="N91">
         <v>26</v>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>2020-26</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>2019/2020</t>
-        </is>
-      </c>
-      <c r="K91">
-        <v>49</v>
-      </c>
-      <c r="L91" s="2">
-        <v>44010</v>
-      </c>
-      <c r="M91">
-        <v>993</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
       <c r="O91">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P91" s="2">
         <v>44305</v>
@@ -6256,16 +6256,16 @@
         <v>50</v>
       </c>
       <c r="L92" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="M92">
-        <v>5919</v>
+        <v>5021</v>
       </c>
       <c r="N92">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="O92">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P92" s="2">
         <v>44305</v>
@@ -6320,13 +6320,13 @@
         <v>50</v>
       </c>
       <c r="L93" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="M93">
-        <v>5021</v>
+        <v>5116</v>
       </c>
       <c r="N93">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O93">
         <v>0.2</v>
@@ -6384,13 +6384,13 @@
         <v>50</v>
       </c>
       <c r="L94" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="M94">
-        <v>5116</v>
+        <v>4738</v>
       </c>
       <c r="N94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O94">
         <v>0.2</v>
@@ -6448,13 +6448,13 @@
         <v>50</v>
       </c>
       <c r="L95" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="M95">
-        <v>4738</v>
+        <v>4533</v>
       </c>
       <c r="N95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O95">
         <v>0.2</v>
@@ -6512,16 +6512,16 @@
         <v>50</v>
       </c>
       <c r="L96" s="2">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="M96">
-        <v>4533</v>
+        <v>1428</v>
       </c>
       <c r="N96">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P96" s="2">
         <v>44305</v>
@@ -6576,13 +6576,13 @@
         <v>50</v>
       </c>
       <c r="L97" s="2">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="M97">
-        <v>1428</v>
+        <v>1198</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <v>0.1</v>
@@ -6624,11 +6624,11 @@
         <v>2020</v>
       </c>
       <c r="H98">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2020-27</t>
+          <t>2020-28</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6637,19 +6637,19 @@
         </is>
       </c>
       <c r="K98">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L98" s="2">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="M98">
-        <v>1198</v>
+        <v>6316</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O98">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P98" s="2">
         <v>44305</v>
@@ -6704,13 +6704,13 @@
         <v>51</v>
       </c>
       <c r="L99" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="M99">
-        <v>6316</v>
+        <v>5340</v>
       </c>
       <c r="N99">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O99">
         <v>0.2</v>
@@ -6768,13 +6768,13 @@
         <v>51</v>
       </c>
       <c r="L100" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="M100">
-        <v>5340</v>
+        <v>5295</v>
       </c>
       <c r="N100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O100">
         <v>0.2</v>
@@ -6832,13 +6832,13 @@
         <v>51</v>
       </c>
       <c r="L101" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="M101">
-        <v>5295</v>
+        <v>4811</v>
       </c>
       <c r="N101">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O101">
         <v>0.2</v>
@@ -6896,16 +6896,16 @@
         <v>51</v>
       </c>
       <c r="L102" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="M102">
-        <v>4811</v>
+        <v>4690</v>
       </c>
       <c r="N102">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O102">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P102" s="2">
         <v>44305</v>
@@ -6960,13 +6960,13 @@
         <v>51</v>
       </c>
       <c r="L103" s="2">
-        <v>44022</v>
+        <v>44023</v>
       </c>
       <c r="M103">
-        <v>4690</v>
+        <v>1393</v>
       </c>
       <c r="N103">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O103">
         <v>0.3</v>
@@ -7024,16 +7024,16 @@
         <v>51</v>
       </c>
       <c r="L104" s="2">
-        <v>44023</v>
+        <v>44024</v>
       </c>
       <c r="M104">
-        <v>1393</v>
+        <v>1196</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P104" s="2">
         <v>44305</v>
@@ -7072,11 +7072,11 @@
         <v>2020</v>
       </c>
       <c r="H105">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2020-28</t>
+          <t>2020-29</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7085,19 +7085,19 @@
         </is>
       </c>
       <c r="K105">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L105" s="2">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="M105">
-        <v>1196</v>
+        <v>6356</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="O105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P105" s="2">
         <v>44305</v>
@@ -7152,16 +7152,16 @@
         <v>52</v>
       </c>
       <c r="L106" s="2">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="M106">
-        <v>6356</v>
+        <v>5259</v>
       </c>
       <c r="N106">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="O106">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P106" s="2">
         <v>44305</v>
@@ -7216,16 +7216,16 @@
         <v>52</v>
       </c>
       <c r="L107" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="M107">
-        <v>5259</v>
+        <v>5405</v>
       </c>
       <c r="N107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O107">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P107" s="2">
         <v>44305</v>
@@ -7280,13 +7280,13 @@
         <v>52</v>
       </c>
       <c r="L108" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="M108">
-        <v>5405</v>
+        <v>4556</v>
       </c>
       <c r="N108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O108">
         <v>0.1</v>
@@ -7344,16 +7344,16 @@
         <v>52</v>
       </c>
       <c r="L109" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="M109">
-        <v>4556</v>
+        <v>4133</v>
       </c>
       <c r="N109">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O109">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P109" s="2">
         <v>44305</v>
@@ -7408,16 +7408,16 @@
         <v>52</v>
       </c>
       <c r="L110" s="2">
-        <v>44029</v>
+        <v>44030</v>
       </c>
       <c r="M110">
-        <v>4133</v>
+        <v>1420</v>
       </c>
       <c r="N110">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P110" s="2">
         <v>44305</v>
@@ -7472,16 +7472,16 @@
         <v>52</v>
       </c>
       <c r="L111" s="2">
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="M111">
-        <v>1420</v>
+        <v>1347</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P111" s="2">
         <v>44305</v>
@@ -7520,32 +7520,32 @@
         <v>2020</v>
       </c>
       <c r="H112">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2020-29</t>
+          <t>2020-30</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2019/2020</t>
+          <t>2020/2021</t>
         </is>
       </c>
       <c r="K112">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="L112" s="2">
-        <v>44031</v>
+        <v>44032</v>
       </c>
       <c r="M112">
-        <v>1347</v>
+        <v>6003</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O112">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P112" s="2">
         <v>44305</v>
@@ -7600,16 +7600,16 @@
         <v>1</v>
       </c>
       <c r="L113" s="2">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="M113">
-        <v>6003</v>
+        <v>4820</v>
       </c>
       <c r="N113">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="O113">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P113" s="2">
         <v>44305</v>
@@ -7664,16 +7664,16 @@
         <v>1</v>
       </c>
       <c r="L114" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="M114">
-        <v>4820</v>
+        <v>4909</v>
       </c>
       <c r="N114">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="O114">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P114" s="2">
         <v>44305</v>
@@ -7728,16 +7728,16 @@
         <v>1</v>
       </c>
       <c r="L115" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="M115">
-        <v>4909</v>
+        <v>4479</v>
       </c>
       <c r="N115">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="O115">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P115" s="2">
         <v>44305</v>
@@ -7792,16 +7792,16 @@
         <v>1</v>
       </c>
       <c r="L116" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="M116">
-        <v>4479</v>
+        <v>4505</v>
       </c>
       <c r="N116">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O116">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P116" s="2">
         <v>44305</v>
@@ -7856,16 +7856,16 @@
         <v>1</v>
       </c>
       <c r="L117" s="2">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="M117">
-        <v>4505</v>
+        <v>1703</v>
       </c>
       <c r="N117">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O117">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P117" s="2">
         <v>44305</v>
@@ -7920,16 +7920,16 @@
         <v>1</v>
       </c>
       <c r="L118" s="2">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="M118">
-        <v>1703</v>
+        <v>1464</v>
       </c>
       <c r="N118">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O118">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P118" s="2">
         <v>44305</v>
@@ -7968,11 +7968,11 @@
         <v>2020</v>
       </c>
       <c r="H119">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2020-30</t>
+          <t>2020-31</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7981,19 +7981,19 @@
         </is>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L119" s="2">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="M119">
-        <v>1464</v>
+        <v>6855</v>
       </c>
       <c r="N119">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="O119">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P119" s="2">
         <v>44305</v>
@@ -8048,13 +8048,13 @@
         <v>2</v>
       </c>
       <c r="L120" s="2">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="M120">
-        <v>6855</v>
+        <v>5879</v>
       </c>
       <c r="N120">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O120">
         <v>0.3</v>
@@ -8112,16 +8112,16 @@
         <v>2</v>
       </c>
       <c r="L121" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="M121">
-        <v>5879</v>
+        <v>5863</v>
       </c>
       <c r="N121">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="O121">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P121" s="2">
         <v>44305</v>
@@ -8176,16 +8176,16 @@
         <v>2</v>
       </c>
       <c r="L122" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="M122">
-        <v>5863</v>
+        <v>5544</v>
       </c>
       <c r="N122">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O122">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P122" s="2">
         <v>44305</v>
@@ -8240,16 +8240,16 @@
         <v>2</v>
       </c>
       <c r="L123" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="M123">
-        <v>5544</v>
+        <v>5401</v>
       </c>
       <c r="N123">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="O123">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="P123" s="2">
         <v>44305</v>
@@ -8304,16 +8304,16 @@
         <v>2</v>
       </c>
       <c r="L124" s="2">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="M124">
-        <v>5401</v>
+        <v>2103</v>
       </c>
       <c r="N124">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="O124">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="P124" s="2">
         <v>44305</v>
@@ -8368,16 +8368,16 @@
         <v>2</v>
       </c>
       <c r="L125" s="2">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="M125">
-        <v>2103</v>
+        <v>1894</v>
       </c>
       <c r="N125">
         <v>13</v>
       </c>
       <c r="O125">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P125" s="2">
         <v>44305</v>
@@ -8416,11 +8416,11 @@
         <v>2020</v>
       </c>
       <c r="H126">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2020-31</t>
+          <t>2020-32</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8429,19 +8429,19 @@
         </is>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L126" s="2">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="M126">
-        <v>1894</v>
+        <v>9289</v>
       </c>
       <c r="N126">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O126">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="P126" s="2">
         <v>44305</v>
@@ -8496,16 +8496,16 @@
         <v>3</v>
       </c>
       <c r="L127" s="2">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="M127">
-        <v>9289</v>
+        <v>8404</v>
       </c>
       <c r="N127">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O127">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P127" s="2">
         <v>44305</v>
@@ -8560,16 +8560,16 @@
         <v>3</v>
       </c>
       <c r="L128" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="M128">
-        <v>8404</v>
+        <v>8700</v>
       </c>
       <c r="N128">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O128">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P128" s="2">
         <v>44305</v>
@@ -8624,16 +8624,16 @@
         <v>3</v>
       </c>
       <c r="L129" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="M129">
-        <v>8700</v>
+        <v>8612</v>
       </c>
       <c r="N129">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O129">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P129" s="2">
         <v>44305</v>
@@ -8688,13 +8688,13 @@
         <v>3</v>
       </c>
       <c r="L130" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="M130">
-        <v>8612</v>
+        <v>8371</v>
       </c>
       <c r="N130">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O130">
         <v>0.9</v>
@@ -8752,16 +8752,16 @@
         <v>3</v>
       </c>
       <c r="L131" s="2">
-        <v>44050</v>
+        <v>44051</v>
       </c>
       <c r="M131">
-        <v>8371</v>
+        <v>3269</v>
       </c>
       <c r="N131">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O131">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="P131" s="2">
         <v>44305</v>
@@ -8816,13 +8816,13 @@
         <v>3</v>
       </c>
       <c r="L132" s="2">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="M132">
-        <v>3269</v>
+        <v>3142</v>
       </c>
       <c r="N132">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O132">
         <v>1.1</v>
@@ -8864,11 +8864,11 @@
         <v>2020</v>
       </c>
       <c r="H133">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2020-32</t>
+          <t>2020-33</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8877,19 +8877,19 @@
         </is>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L133" s="2">
-        <v>44052</v>
+        <v>44053</v>
       </c>
       <c r="M133">
-        <v>3142</v>
+        <v>13445</v>
       </c>
       <c r="N133">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="O133">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="P133" s="2">
         <v>44305</v>
@@ -8944,16 +8944,16 @@
         <v>4</v>
       </c>
       <c r="L134" s="2">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="M134">
-        <v>13445</v>
+        <v>12937</v>
       </c>
       <c r="N134">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="O134">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P134" s="2">
         <v>44305</v>
@@ -9008,16 +9008,16 @@
         <v>4</v>
       </c>
       <c r="L135" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="M135">
-        <v>12937</v>
+        <v>13384</v>
       </c>
       <c r="N135">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O135">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P135" s="2">
         <v>44305</v>
@@ -9072,16 +9072,16 @@
         <v>4</v>
       </c>
       <c r="L136" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="M136">
-        <v>13384</v>
+        <v>13220</v>
       </c>
       <c r="N136">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O136">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P136" s="2">
         <v>44305</v>
@@ -9136,16 +9136,16 @@
         <v>4</v>
       </c>
       <c r="L137" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="M137">
-        <v>13220</v>
+        <v>13705</v>
       </c>
       <c r="N137">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="O137">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P137" s="2">
         <v>44305</v>
@@ -9200,16 +9200,16 @@
         <v>4</v>
       </c>
       <c r="L138" s="2">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="M138">
-        <v>13705</v>
+        <v>5995</v>
       </c>
       <c r="N138">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="O138">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P138" s="2">
         <v>44305</v>
@@ -9264,16 +9264,16 @@
         <v>4</v>
       </c>
       <c r="L139" s="2">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="M139">
-        <v>5995</v>
+        <v>5275</v>
       </c>
       <c r="N139">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O139">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P139" s="2">
         <v>44305</v>
@@ -9312,11 +9312,11 @@
         <v>2020</v>
       </c>
       <c r="H140">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2020-33</t>
+          <t>2020-34</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9325,19 +9325,19 @@
         </is>
       </c>
       <c r="K140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L140" s="2">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="M140">
-        <v>5275</v>
+        <v>18201</v>
       </c>
       <c r="N140">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="O140">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P140" s="2">
         <v>44305</v>
@@ -9392,16 +9392,16 @@
         <v>5</v>
       </c>
       <c r="L141" s="2">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="M141">
-        <v>18201</v>
+        <v>16936</v>
       </c>
       <c r="N141">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="O141">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P141" s="2">
         <v>44305</v>
@@ -9456,16 +9456,16 @@
         <v>5</v>
       </c>
       <c r="L142" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="M142">
-        <v>16936</v>
+        <v>16481</v>
       </c>
       <c r="N142">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O142">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P142" s="2">
         <v>44305</v>
@@ -9520,16 +9520,16 @@
         <v>5</v>
       </c>
       <c r="L143" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="M143">
-        <v>16481</v>
+        <v>15620</v>
       </c>
       <c r="N143">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P143" s="2">
         <v>44305</v>
@@ -9584,13 +9584,13 @@
         <v>5</v>
       </c>
       <c r="L144" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="M144">
-        <v>15620</v>
+        <v>15222</v>
       </c>
       <c r="N144">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O144">
         <v>0.3</v>
@@ -9648,16 +9648,16 @@
         <v>5</v>
       </c>
       <c r="L145" s="2">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="M145">
-        <v>15222</v>
+        <v>6773</v>
       </c>
       <c r="N145">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O145">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P145" s="2">
         <v>44305</v>
@@ -9712,16 +9712,16 @@
         <v>5</v>
       </c>
       <c r="L146" s="2">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="M146">
-        <v>6773</v>
+        <v>6948</v>
       </c>
       <c r="N146">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O146">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P146" s="2">
         <v>44305</v>
@@ -9760,11 +9760,11 @@
         <v>2020</v>
       </c>
       <c r="H147">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2020-34</t>
+          <t>2020-35</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9773,16 +9773,16 @@
         </is>
       </c>
       <c r="K147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L147" s="2">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="M147">
-        <v>6948</v>
+        <v>21130</v>
       </c>
       <c r="N147">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O147">
         <v>0.3</v>
@@ -9840,16 +9840,16 @@
         <v>6</v>
       </c>
       <c r="L148" s="2">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="M148">
-        <v>21130</v>
+        <v>19353</v>
       </c>
       <c r="N148">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="O148">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P148" s="2">
         <v>44305</v>
@@ -9904,13 +9904,13 @@
         <v>6</v>
       </c>
       <c r="L149" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="M149">
-        <v>19353</v>
+        <v>18831</v>
       </c>
       <c r="N149">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O149">
         <v>0.2</v>
@@ -9968,16 +9968,16 @@
         <v>6</v>
       </c>
       <c r="L150" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="M150">
-        <v>18831</v>
+        <v>17288</v>
       </c>
       <c r="N150">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O150">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P150" s="2">
         <v>44305</v>
@@ -10032,16 +10032,16 @@
         <v>6</v>
       </c>
       <c r="L151" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="M151">
-        <v>17288</v>
+        <v>16433</v>
       </c>
       <c r="N151">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="O151">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P151" s="2">
         <v>44305</v>
@@ -10096,16 +10096,16 @@
         <v>6</v>
       </c>
       <c r="L152" s="2">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="M152">
-        <v>16433</v>
+        <v>6358</v>
       </c>
       <c r="N152">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O152">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P152" s="2">
         <v>44305</v>
@@ -10160,16 +10160,16 @@
         <v>6</v>
       </c>
       <c r="L153" s="2">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="M153">
-        <v>6358</v>
+        <v>6752</v>
       </c>
       <c r="N153">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O153">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P153" s="2">
         <v>44305</v>
@@ -10208,11 +10208,11 @@
         <v>2020</v>
       </c>
       <c r="H154">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2020-35</t>
+          <t>2020-36</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="K154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L154" s="2">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="M154">
-        <v>6752</v>
+        <v>22596</v>
       </c>
       <c r="N154">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="O154">
         <v>0.7</v>
@@ -10288,16 +10288,16 @@
         <v>7</v>
       </c>
       <c r="L155" s="2">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="M155">
-        <v>22596</v>
+        <v>20332</v>
       </c>
       <c r="N155">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="O155">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P155" s="2">
         <v>44305</v>
@@ -10352,16 +10352,16 @@
         <v>7</v>
       </c>
       <c r="L156" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="M156">
-        <v>20332</v>
+        <v>19096</v>
       </c>
       <c r="N156">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O156">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P156" s="2">
         <v>44305</v>
@@ -10416,16 +10416,16 @@
         <v>7</v>
       </c>
       <c r="L157" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="M157">
-        <v>19096</v>
+        <v>17621</v>
       </c>
       <c r="N157">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O157">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P157" s="2">
         <v>44305</v>
@@ -10480,16 +10480,16 @@
         <v>7</v>
       </c>
       <c r="L158" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="M158">
-        <v>17621</v>
+        <v>15491</v>
       </c>
       <c r="N158">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O158">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P158" s="2">
         <v>44305</v>
@@ -10544,16 +10544,16 @@
         <v>7</v>
       </c>
       <c r="L159" s="2">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="M159">
-        <v>15491</v>
+        <v>5949</v>
       </c>
       <c r="N159">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="O159">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P159" s="2">
         <v>44305</v>
@@ -10608,16 +10608,16 @@
         <v>7</v>
       </c>
       <c r="L160" s="2">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="M160">
-        <v>5949</v>
+        <v>6370</v>
       </c>
       <c r="N160">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="O160">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="P160" s="2">
         <v>44305</v>
@@ -10656,11 +10656,11 @@
         <v>2020</v>
       </c>
       <c r="H161">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2020-36</t>
+          <t>2020-37</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10669,19 +10669,19 @@
         </is>
       </c>
       <c r="K161">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L161" s="2">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="M161">
-        <v>6370</v>
+        <v>20905</v>
       </c>
       <c r="N161">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="O161">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="P161" s="2">
         <v>44305</v>
@@ -10736,13 +10736,13 @@
         <v>8</v>
       </c>
       <c r="L162" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="M162">
-        <v>20905</v>
+        <v>18774</v>
       </c>
       <c r="N162">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="O162">
         <v>0.6</v>
@@ -10800,16 +10800,16 @@
         <v>8</v>
       </c>
       <c r="L163" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="M163">
-        <v>18774</v>
+        <v>17837</v>
       </c>
       <c r="N163">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O163">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P163" s="2">
         <v>44305</v>
@@ -10864,16 +10864,16 @@
         <v>8</v>
       </c>
       <c r="L164" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="M164">
-        <v>17837</v>
+        <v>15567</v>
       </c>
       <c r="N164">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="O164">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P164" s="2">
         <v>44305</v>
@@ -10928,13 +10928,13 @@
         <v>8</v>
       </c>
       <c r="L165" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="M165">
-        <v>15567</v>
+        <v>14869</v>
       </c>
       <c r="N165">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O165">
         <v>0.8</v>
@@ -10992,16 +10992,16 @@
         <v>8</v>
       </c>
       <c r="L166" s="2">
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="M166">
-        <v>14869</v>
+        <v>7051</v>
       </c>
       <c r="N166">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="O166">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P166" s="2">
         <v>44305</v>
@@ -11056,16 +11056,16 @@
         <v>8</v>
       </c>
       <c r="L167" s="2">
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="M167">
-        <v>7051</v>
+        <v>6698</v>
       </c>
       <c r="N167">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="O167">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="P167" s="2">
         <v>44305</v>
@@ -11104,11 +11104,11 @@
         <v>2020</v>
       </c>
       <c r="H168">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2020-37</t>
+          <t>2020-38</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11117,19 +11117,19 @@
         </is>
       </c>
       <c r="K168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L168" s="2">
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="M168">
-        <v>6698</v>
+        <v>21446</v>
       </c>
       <c r="N168">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="O168">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="P168" s="2">
         <v>44305</v>
@@ -11184,16 +11184,16 @@
         <v>9</v>
       </c>
       <c r="L169" s="2">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="M169">
-        <v>21446</v>
+        <v>18892</v>
       </c>
       <c r="N169">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="O169">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P169" s="2">
         <v>44305</v>
@@ -11248,16 +11248,16 @@
         <v>9</v>
       </c>
       <c r="L170" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="M170">
-        <v>18892</v>
+        <v>17574</v>
       </c>
       <c r="N170">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O170">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P170" s="2">
         <v>44305</v>
@@ -11312,13 +11312,13 @@
         <v>9</v>
       </c>
       <c r="L171" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="M171">
-        <v>17574</v>
+        <v>15177</v>
       </c>
       <c r="N171">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="O171">
         <v>0.8</v>
@@ -11376,16 +11376,16 @@
         <v>9</v>
       </c>
       <c r="L172" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M172">
-        <v>15177</v>
+        <v>14061</v>
       </c>
       <c r="N172">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="O172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P172" s="2">
         <v>44305</v>
@@ -11440,16 +11440,16 @@
         <v>9</v>
       </c>
       <c r="L173" s="2">
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="M173">
-        <v>14061</v>
+        <v>5797</v>
       </c>
       <c r="N173">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="O173">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P173" s="2">
         <v>44305</v>
@@ -11504,16 +11504,16 @@
         <v>9</v>
       </c>
       <c r="L174" s="2">
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="M174">
-        <v>5797</v>
+        <v>5743</v>
       </c>
       <c r="N174">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="O174">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="P174" s="2">
         <v>44305</v>
@@ -11552,11 +11552,11 @@
         <v>2020</v>
       </c>
       <c r="H175">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2020-38</t>
+          <t>2020-39</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11565,19 +11565,19 @@
         </is>
       </c>
       <c r="K175">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L175" s="2">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="M175">
-        <v>5743</v>
+        <v>20654</v>
       </c>
       <c r="N175">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="O175">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="P175" s="2">
         <v>44305</v>
@@ -11632,16 +11632,16 @@
         <v>10</v>
       </c>
       <c r="L176" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="M176">
-        <v>20654</v>
+        <v>16714</v>
       </c>
       <c r="N176">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="O176">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P176" s="2">
         <v>44305</v>
@@ -11696,16 +11696,16 @@
         <v>10</v>
       </c>
       <c r="L177" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="M177">
-        <v>16714</v>
+        <v>16233</v>
       </c>
       <c r="N177">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="O177">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="P177" s="2">
         <v>44305</v>
@@ -11760,13 +11760,13 @@
         <v>10</v>
       </c>
       <c r="L178" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="M178">
-        <v>16233</v>
+        <v>14366</v>
       </c>
       <c r="N178">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O178">
         <v>0.9</v>
@@ -11824,13 +11824,13 @@
         <v>10</v>
       </c>
       <c r="L179" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="M179">
-        <v>14366</v>
+        <v>13785</v>
       </c>
       <c r="N179">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O179">
         <v>0.9</v>
@@ -11888,16 +11888,16 @@
         <v>10</v>
       </c>
       <c r="L180" s="2">
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="M180">
-        <v>13785</v>
+        <v>5980</v>
       </c>
       <c r="N180">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="O180">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P180" s="2">
         <v>44305</v>
@@ -11952,16 +11952,16 @@
         <v>10</v>
       </c>
       <c r="L181" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="M181">
-        <v>5980</v>
+        <v>5940</v>
       </c>
       <c r="N181">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O181">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P181" s="2">
         <v>44305</v>
@@ -12000,11 +12000,11 @@
         <v>2020</v>
       </c>
       <c r="H182">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2020-39</t>
+          <t>2020-40</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12013,19 +12013,19 @@
         </is>
       </c>
       <c r="K182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L182" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="M182">
-        <v>5940</v>
+        <v>19133</v>
       </c>
       <c r="N182">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O182">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="P182" s="2">
         <v>44305</v>
@@ -12080,16 +12080,16 @@
         <v>11</v>
       </c>
       <c r="L183" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="M183">
-        <v>19133</v>
+        <v>15436</v>
       </c>
       <c r="N183">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O183">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P183" s="2">
         <v>44305</v>
@@ -12144,16 +12144,16 @@
         <v>11</v>
       </c>
       <c r="L184" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="M184">
-        <v>15436</v>
+        <v>14887</v>
       </c>
       <c r="N184">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P184" s="2">
         <v>44305</v>
@@ -12208,16 +12208,16 @@
         <v>11</v>
       </c>
       <c r="L185" s="2">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="M185">
-        <v>14887</v>
+        <v>12829</v>
       </c>
       <c r="N185">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O185">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P185" s="2">
         <v>44305</v>
@@ -12272,13 +12272,13 @@
         <v>11</v>
       </c>
       <c r="L186" s="2">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="M186">
-        <v>12829</v>
+        <v>13065</v>
       </c>
       <c r="N186">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O186">
         <v>1</v>
@@ -12336,16 +12336,16 @@
         <v>11</v>
       </c>
       <c r="L187" s="2">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="M187">
-        <v>13065</v>
+        <v>5719</v>
       </c>
       <c r="N187">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="O187">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="P187" s="2">
         <v>44305</v>
@@ -12400,16 +12400,16 @@
         <v>11</v>
       </c>
       <c r="L188" s="2">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="M188">
-        <v>5719</v>
+        <v>5950</v>
       </c>
       <c r="N188">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="O188">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="P188" s="2">
         <v>44305</v>
@@ -12448,11 +12448,11 @@
         <v>2020</v>
       </c>
       <c r="H189">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2020-40</t>
+          <t>2020-41</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12461,19 +12461,19 @@
         </is>
       </c>
       <c r="K189">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L189" s="2">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="M189">
-        <v>5950</v>
+        <v>19137</v>
       </c>
       <c r="N189">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="O189">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="P189" s="2">
         <v>44305</v>
@@ -12528,16 +12528,16 @@
         <v>12</v>
       </c>
       <c r="L190" s="2">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="M190">
-        <v>19137</v>
+        <v>14822</v>
       </c>
       <c r="N190">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O190">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="P190" s="2">
         <v>44305</v>
@@ -12592,16 +12592,16 @@
         <v>12</v>
       </c>
       <c r="L191" s="2">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="M191">
-        <v>14822</v>
+        <v>14173</v>
       </c>
       <c r="N191">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O191">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P191" s="2">
         <v>44305</v>
@@ -12656,16 +12656,16 @@
         <v>12</v>
       </c>
       <c r="L192" s="2">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="M192">
-        <v>14173</v>
+        <v>12971</v>
       </c>
       <c r="N192">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="O192">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P192" s="2">
         <v>44305</v>
@@ -12720,16 +12720,16 @@
         <v>12</v>
       </c>
       <c r="L193" s="2">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="M193">
-        <v>12971</v>
+        <v>12683</v>
       </c>
       <c r="N193">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="O193">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P193" s="2">
         <v>44305</v>
@@ -12784,13 +12784,13 @@
         <v>12</v>
       </c>
       <c r="L194" s="2">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="M194">
-        <v>12683</v>
+        <v>5873</v>
       </c>
       <c r="N194">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="O194">
         <v>1.1</v>
@@ -12848,16 +12848,16 @@
         <v>12</v>
       </c>
       <c r="L195" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="M195">
-        <v>5873</v>
+        <v>6424</v>
       </c>
       <c r="N195">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O195">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P195" s="2">
         <v>44305</v>
@@ -12896,11 +12896,11 @@
         <v>2020</v>
       </c>
       <c r="H196">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2020-41</t>
+          <t>2020-42</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -12909,19 +12909,19 @@
         </is>
       </c>
       <c r="K196">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L196" s="2">
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="M196">
-        <v>6424</v>
+        <v>19755</v>
       </c>
       <c r="N196">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="O196">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P196" s="2">
         <v>44305</v>
@@ -12976,16 +12976,16 @@
         <v>13</v>
       </c>
       <c r="L197" s="2">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="M197">
-        <v>19755</v>
+        <v>15684</v>
       </c>
       <c r="N197">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O197">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P197" s="2">
         <v>44305</v>
@@ -13040,16 +13040,16 @@
         <v>13</v>
       </c>
       <c r="L198" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="M198">
-        <v>15684</v>
+        <v>15180</v>
       </c>
       <c r="N198">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O198">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P198" s="2">
         <v>44305</v>
@@ -13104,16 +13104,16 @@
         <v>13</v>
       </c>
       <c r="L199" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="M199">
-        <v>15180</v>
+        <v>13718</v>
       </c>
       <c r="N199">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="O199">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P199" s="2">
         <v>44305</v>
@@ -13168,13 +13168,13 @@
         <v>13</v>
       </c>
       <c r="L200" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="M200">
-        <v>13718</v>
+        <v>13005</v>
       </c>
       <c r="N200">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O200">
         <v>1</v>
@@ -13232,16 +13232,16 @@
         <v>13</v>
       </c>
       <c r="L201" s="2">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="M201">
-        <v>13005</v>
+        <v>5885</v>
       </c>
       <c r="N201">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="O201">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P201" s="2">
         <v>44305</v>
@@ -13296,16 +13296,16 @@
         <v>13</v>
       </c>
       <c r="L202" s="2">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="M202">
-        <v>5885</v>
+        <v>6360</v>
       </c>
       <c r="N202">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O202">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P202" s="2">
         <v>44305</v>
@@ -13344,11 +13344,11 @@
         <v>2020</v>
       </c>
       <c r="H203">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2020-42</t>
+          <t>2020-43</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="K203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L203" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="M203">
-        <v>6360</v>
+        <v>20521</v>
       </c>
       <c r="N203">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="O203">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="P203" s="2">
         <v>44305</v>
@@ -13424,13 +13424,13 @@
         <v>14</v>
       </c>
       <c r="L204" s="2">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="M204">
-        <v>20521</v>
+        <v>16901</v>
       </c>
       <c r="N204">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="O204">
         <v>1.1</v>
@@ -13488,16 +13488,16 @@
         <v>14</v>
       </c>
       <c r="L205" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="M205">
-        <v>16901</v>
+        <v>16048</v>
       </c>
       <c r="N205">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="O205">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="P205" s="2">
         <v>44305</v>
@@ -13552,16 +13552,16 @@
         <v>14</v>
       </c>
       <c r="L206" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="M206">
-        <v>16048</v>
+        <v>15384</v>
       </c>
       <c r="N206">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="O206">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P206" s="2">
         <v>44305</v>
@@ -13616,16 +13616,16 @@
         <v>14</v>
       </c>
       <c r="L207" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="M207">
-        <v>15384</v>
+        <v>15136</v>
       </c>
       <c r="N207">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="O207">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="P207" s="2">
         <v>44305</v>
@@ -13680,16 +13680,16 @@
         <v>14</v>
       </c>
       <c r="L208" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="M208">
-        <v>15136</v>
+        <v>7321</v>
       </c>
       <c r="N208">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="O208">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P208" s="2">
         <v>44305</v>
@@ -13744,16 +13744,16 @@
         <v>14</v>
       </c>
       <c r="L209" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="M209">
-        <v>7321</v>
+        <v>7630</v>
       </c>
       <c r="N209">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P209" s="2">
         <v>44305</v>
@@ -13792,11 +13792,11 @@
         <v>2020</v>
       </c>
       <c r="H210">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2020-43</t>
+          <t>2020-44</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -13805,19 +13805,19 @@
         </is>
       </c>
       <c r="K210">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L210" s="2">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="M210">
-        <v>7630</v>
+        <v>23161</v>
       </c>
       <c r="N210">
-        <v>202</v>
+        <v>484</v>
       </c>
       <c r="O210">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P210" s="2">
         <v>44305</v>
@@ -13872,16 +13872,16 @@
         <v>15</v>
       </c>
       <c r="L211" s="2">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="M211">
-        <v>23161</v>
+        <v>20694</v>
       </c>
       <c r="N211">
-        <v>484</v>
+        <v>391</v>
       </c>
       <c r="O211">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P211" s="2">
         <v>44305</v>
@@ -13936,16 +13936,16 @@
         <v>15</v>
       </c>
       <c r="L212" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="M212">
-        <v>20694</v>
+        <v>20852</v>
       </c>
       <c r="N212">
-        <v>391</v>
+        <v>514</v>
       </c>
       <c r="O212">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="P212" s="2">
         <v>44305</v>
@@ -14000,16 +14000,16 @@
         <v>15</v>
       </c>
       <c r="L213" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="M213">
-        <v>20852</v>
+        <v>20685</v>
       </c>
       <c r="N213">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="O213">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P213" s="2">
         <v>44305</v>
@@ -14064,16 +14064,16 @@
         <v>15</v>
       </c>
       <c r="L214" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="M214">
-        <v>20685</v>
+        <v>20121</v>
       </c>
       <c r="N214">
-        <v>431</v>
+        <v>615</v>
       </c>
       <c r="O214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P214" s="2">
         <v>44305</v>
@@ -14128,16 +14128,16 @@
         <v>15</v>
       </c>
       <c r="L215" s="2">
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="M215">
-        <v>20121</v>
+        <v>9282</v>
       </c>
       <c r="N215">
-        <v>615</v>
+        <v>384</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P215" s="2">
         <v>44305</v>
@@ -14192,16 +14192,16 @@
         <v>15</v>
       </c>
       <c r="L216" s="2">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="M216">
-        <v>9282</v>
+        <v>9466</v>
       </c>
       <c r="N216">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P216" s="2">
         <v>44305</v>
@@ -14240,11 +14240,11 @@
         <v>2020</v>
       </c>
       <c r="H217">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2020-44</t>
+          <t>2020-45</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -14253,19 +14253,19 @@
         </is>
       </c>
       <c r="K217">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L217" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="M217">
-        <v>9466</v>
+        <v>27397</v>
       </c>
       <c r="N217">
-        <v>322</v>
+        <v>646</v>
       </c>
       <c r="O217">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P217" s="2">
         <v>44305</v>
@@ -14320,16 +14320,16 @@
         <v>16</v>
       </c>
       <c r="L218" s="2">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="M218">
-        <v>27397</v>
+        <v>26666</v>
       </c>
       <c r="N218">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="O218">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P218" s="2">
         <v>44305</v>
@@ -14384,16 +14384,16 @@
         <v>16</v>
       </c>
       <c r="L219" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="M219">
-        <v>26666</v>
+        <v>25203</v>
       </c>
       <c r="N219">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="O219">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P219" s="2">
         <v>44305</v>
@@ -14448,16 +14448,16 @@
         <v>16</v>
       </c>
       <c r="L220" s="2">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="M220">
-        <v>25203</v>
+        <v>27268</v>
       </c>
       <c r="N220">
-        <v>690</v>
+        <v>602</v>
       </c>
       <c r="O220">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="P220" s="2">
         <v>44305</v>
@@ -14512,16 +14512,16 @@
         <v>16</v>
       </c>
       <c r="L221" s="2">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="M221">
-        <v>27268</v>
+        <v>26742</v>
       </c>
       <c r="N221">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="O221">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P221" s="2">
         <v>44305</v>
@@ -14576,16 +14576,16 @@
         <v>16</v>
       </c>
       <c r="L222" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="M222">
-        <v>26742</v>
+        <v>12190</v>
       </c>
       <c r="N222">
-        <v>649</v>
+        <v>389</v>
       </c>
       <c r="O222">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P222" s="2">
         <v>44305</v>
@@ -14640,16 +14640,16 @@
         <v>16</v>
       </c>
       <c r="L223" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="M223">
-        <v>12190</v>
+        <v>11368</v>
       </c>
       <c r="N223">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P223" s="2">
         <v>44305</v>
@@ -14688,11 +14688,11 @@
         <v>2020</v>
       </c>
       <c r="H224">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2020-45</t>
+          <t>2020-46</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14701,19 +14701,19 @@
         </is>
       </c>
       <c r="K224">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L224" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="M224">
-        <v>11368</v>
+        <v>30431</v>
       </c>
       <c r="N224">
-        <v>384</v>
+        <v>706</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="P224" s="2">
         <v>44305</v>
@@ -14768,13 +14768,13 @@
         <v>17</v>
       </c>
       <c r="L225" s="2">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="M225">
-        <v>30431</v>
+        <v>25125</v>
       </c>
       <c r="N225">
-        <v>706</v>
+        <v>601</v>
       </c>
       <c r="O225">
         <v>2.3</v>
@@ -14832,16 +14832,16 @@
         <v>17</v>
       </c>
       <c r="L226" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="M226">
-        <v>25125</v>
+        <v>23217</v>
       </c>
       <c r="N226">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="O226">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P226" s="2">
         <v>44305</v>
@@ -14896,16 +14896,16 @@
         <v>17</v>
       </c>
       <c r="L227" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="M227">
-        <v>23217</v>
+        <v>23050</v>
       </c>
       <c r="N227">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="O227">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P227" s="2">
         <v>44305</v>
@@ -14960,16 +14960,16 @@
         <v>17</v>
       </c>
       <c r="L228" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="M228">
-        <v>23050</v>
+        <v>21484</v>
       </c>
       <c r="N228">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="O228">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P228" s="2">
         <v>44305</v>
@@ -15024,16 +15024,16 @@
         <v>17</v>
       </c>
       <c r="L229" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="M229">
-        <v>21484</v>
+        <v>9549</v>
       </c>
       <c r="N229">
-        <v>697</v>
+        <v>378</v>
       </c>
       <c r="O229">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P229" s="2">
         <v>44305</v>
@@ -15088,16 +15088,16 @@
         <v>17</v>
       </c>
       <c r="L230" s="2">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="M230">
-        <v>9549</v>
+        <v>10565</v>
       </c>
       <c r="N230">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="O230">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="P230" s="2">
         <v>44305</v>
@@ -15136,11 +15136,11 @@
         <v>2020</v>
       </c>
       <c r="H231">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2020-46</t>
+          <t>2020-47</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="K231">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L231" s="2">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="M231">
-        <v>10565</v>
+        <v>27788</v>
       </c>
       <c r="N231">
-        <v>405</v>
+        <v>720</v>
       </c>
       <c r="O231">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="P231" s="2">
         <v>44305</v>
@@ -15216,16 +15216,16 @@
         <v>18</v>
       </c>
       <c r="L232" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="M232">
-        <v>27788</v>
+        <v>21189</v>
       </c>
       <c r="N232">
-        <v>720</v>
+        <v>633</v>
       </c>
       <c r="O232">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="P232" s="2">
         <v>44305</v>
@@ -15280,16 +15280,16 @@
         <v>18</v>
       </c>
       <c r="L233" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="M233">
-        <v>21189</v>
+        <v>20962</v>
       </c>
       <c r="N233">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="O233">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P233" s="2">
         <v>44305</v>
@@ -15344,16 +15344,16 @@
         <v>18</v>
       </c>
       <c r="L234" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="M234">
-        <v>20962</v>
+        <v>18831</v>
       </c>
       <c r="N234">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="O234">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P234" s="2">
         <v>44305</v>
@@ -15408,13 +15408,13 @@
         <v>18</v>
       </c>
       <c r="L235" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="M235">
-        <v>18831</v>
+        <v>17641</v>
       </c>
       <c r="N235">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="O235">
         <v>2.9</v>
@@ -15472,16 +15472,16 @@
         <v>18</v>
       </c>
       <c r="L236" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="M236">
-        <v>17641</v>
+        <v>8024</v>
       </c>
       <c r="N236">
-        <v>518</v>
+        <v>288</v>
       </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P236" s="2">
         <v>44305</v>
@@ -15536,16 +15536,16 @@
         <v>18</v>
       </c>
       <c r="L237" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="M237">
-        <v>8024</v>
+        <v>8101</v>
       </c>
       <c r="N237">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P237" s="2">
         <v>44305</v>
@@ -15584,11 +15584,11 @@
         <v>2020</v>
       </c>
       <c r="H238">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2020-47</t>
+          <t>2020-48</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -15597,19 +15597,19 @@
         </is>
       </c>
       <c r="K238">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L238" s="2">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="M238">
-        <v>8101</v>
+        <v>25177</v>
       </c>
       <c r="N238">
-        <v>279</v>
+        <v>608</v>
       </c>
       <c r="O238">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="P238" s="2">
         <v>44305</v>
@@ -15664,16 +15664,16 @@
         <v>19</v>
       </c>
       <c r="L239" s="2">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="M239">
-        <v>25177</v>
+        <v>19114</v>
       </c>
       <c r="N239">
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="O239">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P239" s="2">
         <v>44305</v>
@@ -15728,16 +15728,16 @@
         <v>19</v>
       </c>
       <c r="L240" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="M240">
-        <v>19114</v>
+        <v>18926</v>
       </c>
       <c r="N240">
-        <v>413</v>
+        <v>513</v>
       </c>
       <c r="O240">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="P240" s="2">
         <v>44305</v>
@@ -15792,13 +15792,13 @@
         <v>19</v>
       </c>
       <c r="L241" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="M241">
-        <v>18926</v>
+        <v>18130</v>
       </c>
       <c r="N241">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="O241">
         <v>2.6</v>
@@ -15856,16 +15856,16 @@
         <v>19</v>
       </c>
       <c r="L242" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="M242">
-        <v>18130</v>
+        <v>15503</v>
       </c>
       <c r="N242">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="O242">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="P242" s="2">
         <v>44305</v>
@@ -15920,16 +15920,16 @@
         <v>19</v>
       </c>
       <c r="L243" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="M243">
-        <v>15503</v>
+        <v>6794</v>
       </c>
       <c r="N243">
-        <v>445</v>
+        <v>236</v>
       </c>
       <c r="O243">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P243" s="2">
         <v>44305</v>
@@ -15984,16 +15984,16 @@
         <v>19</v>
       </c>
       <c r="L244" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="M244">
-        <v>6794</v>
+        <v>6879</v>
       </c>
       <c r="N244">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P244" s="2">
         <v>44305</v>
@@ -16032,11 +16032,11 @@
         <v>2020</v>
       </c>
       <c r="H245">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2020-48</t>
+          <t>2020-49</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -16045,19 +16045,19 @@
         </is>
       </c>
       <c r="K245">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L245" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="M245">
-        <v>6879</v>
+        <v>22555</v>
       </c>
       <c r="N245">
-        <v>229</v>
+        <v>448</v>
       </c>
       <c r="O245">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="P245" s="2">
         <v>44305</v>
@@ -16112,16 +16112,16 @@
         <v>20</v>
       </c>
       <c r="L246" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="M246">
-        <v>22555</v>
+        <v>18004</v>
       </c>
       <c r="N246">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="O246">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P246" s="2">
         <v>44305</v>
@@ -16176,16 +16176,16 @@
         <v>20</v>
       </c>
       <c r="L247" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="M247">
-        <v>18004</v>
+        <v>17227</v>
       </c>
       <c r="N247">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="O247">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P247" s="2">
         <v>44305</v>
@@ -16240,16 +16240,16 @@
         <v>20</v>
       </c>
       <c r="L248" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="M248">
-        <v>17227</v>
+        <v>17192</v>
       </c>
       <c r="N248">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="O248">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P248" s="2">
         <v>44305</v>
@@ -16304,16 +16304,16 @@
         <v>20</v>
       </c>
       <c r="L249" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="M249">
-        <v>17192</v>
+        <v>15329</v>
       </c>
       <c r="N249">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="O249">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P249" s="2">
         <v>44305</v>
@@ -16368,16 +16368,16 @@
         <v>20</v>
       </c>
       <c r="L250" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="M250">
-        <v>15329</v>
+        <v>6562</v>
       </c>
       <c r="N250">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="O250">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="P250" s="2">
         <v>44305</v>
@@ -16432,16 +16432,16 @@
         <v>20</v>
       </c>
       <c r="L251" s="2">
-        <v>44170</v>
+        <v>44171</v>
       </c>
       <c r="M251">
-        <v>6562</v>
+        <v>7130</v>
       </c>
       <c r="N251">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O251">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="P251" s="2">
         <v>44305</v>
@@ -16480,11 +16480,11 @@
         <v>2020</v>
       </c>
       <c r="H252">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>2020-49</t>
+          <t>2020-50</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16493,19 +16493,19 @@
         </is>
       </c>
       <c r="K252">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L252" s="2">
-        <v>44171</v>
+        <v>44172</v>
       </c>
       <c r="M252">
-        <v>7130</v>
+        <v>23209</v>
       </c>
       <c r="N252">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="O252">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P252" s="2">
         <v>44305</v>
@@ -16560,13 +16560,13 @@
         <v>21</v>
       </c>
       <c r="L253" s="2">
-        <v>44172</v>
+        <v>44173</v>
       </c>
       <c r="M253">
-        <v>23209</v>
+        <v>18653</v>
       </c>
       <c r="N253">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="O253">
         <v>2.1</v>
@@ -16624,16 +16624,16 @@
         <v>21</v>
       </c>
       <c r="L254" s="2">
-        <v>44173</v>
+        <v>44174</v>
       </c>
       <c r="M254">
-        <v>18653</v>
+        <v>18471</v>
       </c>
       <c r="N254">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="O254">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="P254" s="2">
         <v>44305</v>
@@ -16688,16 +16688,16 @@
         <v>21</v>
       </c>
       <c r="L255" s="2">
-        <v>44174</v>
+        <v>44175</v>
       </c>
       <c r="M255">
-        <v>18471</v>
+        <v>18905</v>
       </c>
       <c r="N255">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="O255">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="P255" s="2">
         <v>44305</v>
@@ -16752,16 +16752,16 @@
         <v>21</v>
       </c>
       <c r="L256" s="2">
-        <v>44175</v>
+        <v>44176</v>
       </c>
       <c r="M256">
-        <v>18905</v>
+        <v>17446</v>
       </c>
       <c r="N256">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="O256">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P256" s="2">
         <v>44305</v>
@@ -16816,16 +16816,16 @@
         <v>21</v>
       </c>
       <c r="L257" s="2">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="M257">
-        <v>17446</v>
+        <v>8746</v>
       </c>
       <c r="N257">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="O257">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P257" s="2">
         <v>44305</v>
@@ -16880,16 +16880,16 @@
         <v>21</v>
       </c>
       <c r="L258" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="M258">
-        <v>8746</v>
+        <v>8858</v>
       </c>
       <c r="N258">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O258">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P258" s="2">
         <v>44305</v>
@@ -16928,11 +16928,11 @@
         <v>2020</v>
       </c>
       <c r="H259">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2020-50</t>
+          <t>2020-51</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16941,19 +16941,19 @@
         </is>
       </c>
       <c r="K259">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L259" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="M259">
-        <v>8858</v>
+        <v>25551</v>
       </c>
       <c r="N259">
-        <v>283</v>
+        <v>544</v>
       </c>
       <c r="O259">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="P259" s="2">
         <v>44305</v>
@@ -17008,16 +17008,16 @@
         <v>22</v>
       </c>
       <c r="L260" s="2">
-        <v>44179</v>
+        <v>44180</v>
       </c>
       <c r="M260">
-        <v>25551</v>
+        <v>22180</v>
       </c>
       <c r="N260">
-        <v>544</v>
+        <v>438</v>
       </c>
       <c r="O260">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="P260" s="2">
         <v>44305</v>
@@ -17072,13 +17072,13 @@
         <v>22</v>
       </c>
       <c r="L261" s="2">
-        <v>44180</v>
+        <v>44181</v>
       </c>
       <c r="M261">
-        <v>22180</v>
+        <v>22715</v>
       </c>
       <c r="N261">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="O261">
         <v>1.9</v>
@@ -17136,16 +17136,16 @@
         <v>22</v>
       </c>
       <c r="L262" s="2">
-        <v>44181</v>
+        <v>44182</v>
       </c>
       <c r="M262">
-        <v>22715</v>
+        <v>23534</v>
       </c>
       <c r="N262">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="O262">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P262" s="2">
         <v>44305</v>
@@ -17200,16 +17200,16 @@
         <v>22</v>
       </c>
       <c r="L263" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="M263">
-        <v>23534</v>
+        <v>23810</v>
       </c>
       <c r="N263">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="O263">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P263" s="2">
         <v>44305</v>
@@ -17264,16 +17264,16 @@
         <v>22</v>
       </c>
       <c r="L264" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="M264">
-        <v>23810</v>
+        <v>13022</v>
       </c>
       <c r="N264">
-        <v>473</v>
+        <v>309</v>
       </c>
       <c r="O264">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="P264" s="2">
         <v>44305</v>
@@ -17328,16 +17328,16 @@
         <v>22</v>
       </c>
       <c r="L265" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="M265">
-        <v>13022</v>
+        <v>12420</v>
       </c>
       <c r="N265">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="O265">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P265" s="2">
         <v>44305</v>
@@ -17376,11 +17376,11 @@
         <v>2020</v>
       </c>
       <c r="H266">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2020-51</t>
+          <t>2020-52</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -17389,19 +17389,19 @@
         </is>
       </c>
       <c r="K266">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L266" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="M266">
-        <v>12420</v>
+        <v>31188</v>
       </c>
       <c r="N266">
-        <v>299</v>
+        <v>619</v>
       </c>
       <c r="O266">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="P266" s="2">
         <v>44305</v>
@@ -17456,16 +17456,16 @@
         <v>23</v>
       </c>
       <c r="L267" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="M267">
-        <v>31188</v>
+        <v>26008</v>
       </c>
       <c r="N267">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="O267">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P267" s="2">
         <v>44305</v>
@@ -17520,16 +17520,16 @@
         <v>23</v>
       </c>
       <c r="L268" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="M268">
-        <v>26008</v>
+        <v>17800</v>
       </c>
       <c r="N268">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="O268">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="P268" s="2">
         <v>44305</v>
@@ -17584,16 +17584,16 @@
         <v>23</v>
       </c>
       <c r="L269" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="M269">
-        <v>17800</v>
+        <v>5816</v>
       </c>
       <c r="N269">
-        <v>586</v>
+        <v>290</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="P269" s="2">
         <v>44305</v>
@@ -17648,16 +17648,16 @@
         <v>23</v>
       </c>
       <c r="L270" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="M270">
-        <v>5816</v>
+        <v>6301</v>
       </c>
       <c r="N270">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O270">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="P270" s="2">
         <v>44305</v>
@@ -17712,16 +17712,16 @@
         <v>23</v>
       </c>
       <c r="L271" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="M271">
-        <v>6301</v>
+        <v>10461</v>
       </c>
       <c r="N271">
-        <v>293</v>
+        <v>466</v>
       </c>
       <c r="O271">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="P271" s="2">
         <v>44305</v>
@@ -17776,16 +17776,16 @@
         <v>23</v>
       </c>
       <c r="L272" s="2">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="M272">
-        <v>10461</v>
+        <v>9883</v>
       </c>
       <c r="N272">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="O272">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="P272" s="2">
         <v>44305</v>
@@ -17824,11 +17824,11 @@
         <v>2020</v>
       </c>
       <c r="H273">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>2020-52</t>
+          <t>2020-53</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -17837,19 +17837,19 @@
         </is>
       </c>
       <c r="K273">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="L273" s="2">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="M273">
-        <v>9883</v>
+        <v>21002</v>
       </c>
       <c r="N273">
-        <v>424</v>
+        <v>777</v>
       </c>
       <c r="O273">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="P273" s="2">
         <v>44305</v>
@@ -17904,13 +17904,13 @@
         <v>23.5</v>
       </c>
       <c r="L274" s="2">
-        <v>44193</v>
+        <v>44194</v>
       </c>
       <c r="M274">
-        <v>21002</v>
+        <v>18662</v>
       </c>
       <c r="N274">
-        <v>777</v>
+        <v>695</v>
       </c>
       <c r="O274">
         <v>3.6</v>
@@ -17968,16 +17968,16 @@
         <v>23.5</v>
       </c>
       <c r="L275" s="2">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="M275">
-        <v>18662</v>
+        <v>18512</v>
       </c>
       <c r="N275">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="O275">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P275" s="2">
         <v>44305</v>
@@ -18032,16 +18032,16 @@
         <v>23.5</v>
       </c>
       <c r="L276" s="2">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="M276">
-        <v>18512</v>
+        <v>8642</v>
       </c>
       <c r="N276">
-        <v>638</v>
+        <v>434</v>
       </c>
       <c r="O276">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="P276" s="2">
         <v>44305</v>
@@ -18096,16 +18096,16 @@
         <v>23.5</v>
       </c>
       <c r="L277" s="2">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="M277">
-        <v>8642</v>
+        <v>6936</v>
       </c>
       <c r="N277">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="O277">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="P277" s="2">
         <v>44305</v>
@@ -18160,16 +18160,16 @@
         <v>23.5</v>
       </c>
       <c r="L278" s="2">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="M278">
-        <v>6936</v>
+        <v>14805</v>
       </c>
       <c r="N278">
-        <v>345</v>
+        <v>523</v>
       </c>
       <c r="O278">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="P278" s="2">
         <v>44305</v>
@@ -18224,16 +18224,16 @@
         <v>23.5</v>
       </c>
       <c r="L279" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="M279">
-        <v>14805</v>
+        <v>14865</v>
       </c>
       <c r="N279">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="O279">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P279" s="2">
         <v>44305</v>
@@ -18269,14 +18269,14 @@
         </is>
       </c>
       <c r="G280">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H280">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2020-53</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18285,19 +18285,19 @@
         </is>
       </c>
       <c r="K280">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="L280" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="M280">
-        <v>14865</v>
+        <v>37006</v>
       </c>
       <c r="N280">
-        <v>443</v>
+        <v>937</v>
       </c>
       <c r="O280">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P280" s="2">
         <v>44305</v>
@@ -18352,13 +18352,13 @@
         <v>24</v>
       </c>
       <c r="L281" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="M281">
-        <v>37006</v>
+        <v>30936</v>
       </c>
       <c r="N281">
-        <v>937</v>
+        <v>789</v>
       </c>
       <c r="O281">
         <v>2.5</v>
@@ -18416,16 +18416,16 @@
         <v>24</v>
       </c>
       <c r="L282" s="2">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="M282">
-        <v>30936</v>
+        <v>29124</v>
       </c>
       <c r="N282">
-        <v>789</v>
+        <v>708</v>
       </c>
       <c r="O282">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P282" s="2">
         <v>44305</v>
@@ -18480,16 +18480,16 @@
         <v>24</v>
       </c>
       <c r="L283" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="M283">
-        <v>29124</v>
+        <v>28480</v>
       </c>
       <c r="N283">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="O283">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P283" s="2">
         <v>44305</v>
@@ -18544,16 +18544,16 @@
         <v>24</v>
       </c>
       <c r="L284" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="M284">
-        <v>28480</v>
+        <v>26990</v>
       </c>
       <c r="N284">
-        <v>735</v>
+        <v>649</v>
       </c>
       <c r="O284">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P284" s="2">
         <v>44305</v>
@@ -18608,16 +18608,16 @@
         <v>24</v>
       </c>
       <c r="L285" s="2">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="M285">
-        <v>26990</v>
+        <v>14967</v>
       </c>
       <c r="N285">
-        <v>649</v>
+        <v>414</v>
       </c>
       <c r="O285">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="P285" s="2">
         <v>44305</v>
@@ -18672,16 +18672,16 @@
         <v>24</v>
       </c>
       <c r="L286" s="2">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="M286">
-        <v>14967</v>
+        <v>14210</v>
       </c>
       <c r="N286">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="O286">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P286" s="2">
         <v>44305</v>
@@ -18720,11 +18720,11 @@
         <v>2021</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -18733,19 +18733,19 @@
         </is>
       </c>
       <c r="K287">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L287" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="M287">
-        <v>14210</v>
+        <v>31937</v>
       </c>
       <c r="N287">
-        <v>435</v>
+        <v>638</v>
       </c>
       <c r="O287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P287" s="2">
         <v>44305</v>
@@ -18800,16 +18800,16 @@
         <v>25</v>
       </c>
       <c r="L288" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="M288">
-        <v>31937</v>
+        <v>22978</v>
       </c>
       <c r="N288">
-        <v>638</v>
+        <v>564</v>
       </c>
       <c r="O288">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P288" s="2">
         <v>44305</v>
@@ -18864,16 +18864,16 @@
         <v>25</v>
       </c>
       <c r="L289" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="M289">
-        <v>22978</v>
+        <v>21802</v>
       </c>
       <c r="N289">
-        <v>564</v>
+        <v>460</v>
       </c>
       <c r="O289">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P289" s="2">
         <v>44305</v>
@@ -18928,16 +18928,16 @@
         <v>25</v>
       </c>
       <c r="L290" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="M290">
-        <v>21802</v>
+        <v>19718</v>
       </c>
       <c r="N290">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="O290">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P290" s="2">
         <v>44305</v>
@@ -18992,16 +18992,16 @@
         <v>25</v>
       </c>
       <c r="L291" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="M291">
-        <v>19718</v>
+        <v>18182</v>
       </c>
       <c r="N291">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="O291">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P291" s="2">
         <v>44305</v>
@@ -19056,16 +19056,16 @@
         <v>25</v>
       </c>
       <c r="L292" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="M292">
-        <v>18182</v>
+        <v>8383</v>
       </c>
       <c r="N292">
-        <v>396</v>
+        <v>267</v>
       </c>
       <c r="O292">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="P292" s="2">
         <v>44305</v>
@@ -19120,16 +19120,16 @@
         <v>25</v>
       </c>
       <c r="L293" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="M293">
-        <v>8383</v>
+        <v>8414</v>
       </c>
       <c r="N293">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="O293">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P293" s="2">
         <v>44305</v>
@@ -19168,11 +19168,11 @@
         <v>2021</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -19181,19 +19181,19 @@
         </is>
       </c>
       <c r="K294">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L294" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="M294">
-        <v>8414</v>
+        <v>22808</v>
       </c>
       <c r="N294">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="O294">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="P294" s="2">
         <v>44305</v>
@@ -19248,13 +19248,13 @@
         <v>26</v>
       </c>
       <c r="L295" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="M295">
-        <v>22808</v>
+        <v>17519</v>
       </c>
       <c r="N295">
-        <v>446</v>
+        <v>342</v>
       </c>
       <c r="O295">
         <v>1.9</v>
@@ -19312,16 +19312,16 @@
         <v>26</v>
       </c>
       <c r="L296" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="M296">
-        <v>17519</v>
+        <v>17204</v>
       </c>
       <c r="N296">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="O296">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P296" s="2">
         <v>44305</v>
@@ -19376,16 +19376,16 @@
         <v>26</v>
       </c>
       <c r="L297" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="M297">
-        <v>17204</v>
+        <v>14879</v>
       </c>
       <c r="N297">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="O297">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P297" s="2">
         <v>44305</v>
@@ -19440,16 +19440,16 @@
         <v>26</v>
       </c>
       <c r="L298" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="M298">
-        <v>14879</v>
+        <v>14680</v>
       </c>
       <c r="N298">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="O298">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P298" s="2">
         <v>44305</v>
@@ -19504,16 +19504,16 @@
         <v>26</v>
       </c>
       <c r="L299" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="M299">
-        <v>14680</v>
+        <v>8266</v>
       </c>
       <c r="N299">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="O299">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P299" s="2">
         <v>44305</v>
@@ -19568,16 +19568,16 @@
         <v>26</v>
       </c>
       <c r="L300" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="M300">
-        <v>8266</v>
+        <v>9387</v>
       </c>
       <c r="N300">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="O300">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P300" s="2">
         <v>44305</v>
@@ -19616,11 +19616,11 @@
         <v>2021</v>
       </c>
       <c r="H301">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19629,19 +19629,19 @@
         </is>
       </c>
       <c r="K301">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L301" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="M301">
-        <v>9387</v>
+        <v>27527</v>
       </c>
       <c r="N301">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="O301">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="P301" s="2">
         <v>44305</v>
@@ -19696,16 +19696,16 @@
         <v>27</v>
       </c>
       <c r="L302" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="M302">
-        <v>27527</v>
+        <v>21064</v>
       </c>
       <c r="N302">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="O302">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P302" s="2">
         <v>44305</v>
@@ -19760,16 +19760,16 @@
         <v>27</v>
       </c>
       <c r="L303" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="M303">
-        <v>21064</v>
+        <v>20409</v>
       </c>
       <c r="N303">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="O303">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="P303" s="2">
         <v>44305</v>
@@ -19824,16 +19824,16 @@
         <v>27</v>
       </c>
       <c r="L304" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="M304">
-        <v>20409</v>
+        <v>20144</v>
       </c>
       <c r="N304">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="O304">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="P304" s="2">
         <v>44305</v>
@@ -19888,16 +19888,16 @@
         <v>27</v>
       </c>
       <c r="L305" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="M305">
-        <v>20144</v>
+        <v>17653</v>
       </c>
       <c r="N305">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="O305">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P305" s="2">
         <v>44305</v>
@@ -19952,16 +19952,16 @@
         <v>27</v>
       </c>
       <c r="L306" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="M306">
-        <v>17653</v>
+        <v>7156</v>
       </c>
       <c r="N306">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="O306">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="P306" s="2">
         <v>44305</v>
@@ -20016,16 +20016,16 @@
         <v>27</v>
       </c>
       <c r="L307" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="M307">
-        <v>7156</v>
+        <v>6957</v>
       </c>
       <c r="N307">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O307">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P307" s="2">
         <v>44305</v>
@@ -20064,11 +20064,11 @@
         <v>2021</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -20077,19 +20077,19 @@
         </is>
       </c>
       <c r="K308">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L308" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="M308">
-        <v>6957</v>
+        <v>22297</v>
       </c>
       <c r="N308">
-        <v>180</v>
+        <v>318</v>
       </c>
       <c r="O308">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="P308" s="2">
         <v>44305</v>
@@ -20144,16 +20144,16 @@
         <v>28</v>
       </c>
       <c r="L309" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="M309">
-        <v>22297</v>
+        <v>17525</v>
       </c>
       <c r="N309">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="O309">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P309" s="2">
         <v>44305</v>
@@ -20208,16 +20208,16 @@
         <v>28</v>
       </c>
       <c r="L310" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="M310">
-        <v>17525</v>
+        <v>17636</v>
       </c>
       <c r="N310">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="O310">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P310" s="2">
         <v>44305</v>
@@ -20272,16 +20272,16 @@
         <v>28</v>
       </c>
       <c r="L311" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="M311">
-        <v>17636</v>
+        <v>17404</v>
       </c>
       <c r="N311">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="O311">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P311" s="2">
         <v>44305</v>
@@ -20336,16 +20336,16 @@
         <v>28</v>
       </c>
       <c r="L312" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="M312">
-        <v>17404</v>
+        <v>15792</v>
       </c>
       <c r="N312">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O312">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P312" s="2">
         <v>44305</v>
@@ -20400,16 +20400,16 @@
         <v>28</v>
       </c>
       <c r="L313" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="M313">
-        <v>15792</v>
+        <v>7397</v>
       </c>
       <c r="N313">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="O313">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="P313" s="2">
         <v>44305</v>
@@ -20464,16 +20464,16 @@
         <v>28</v>
       </c>
       <c r="L314" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="M314">
-        <v>7397</v>
+        <v>6719</v>
       </c>
       <c r="N314">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="O314">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P314" s="2">
         <v>44305</v>
@@ -20512,11 +20512,11 @@
         <v>2021</v>
       </c>
       <c r="H315">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -20525,19 +20525,19 @@
         </is>
       </c>
       <c r="K315">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L315" s="2">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="M315">
-        <v>6719</v>
+        <v>22612</v>
       </c>
       <c r="N315">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="O315">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="P315" s="2">
         <v>44305</v>
@@ -20592,13 +20592,13 @@
         <v>29</v>
       </c>
       <c r="L316" s="2">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="M316">
-        <v>22612</v>
+        <v>20708</v>
       </c>
       <c r="N316">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="O316">
         <v>1.3</v>
@@ -20656,16 +20656,16 @@
         <v>29</v>
       </c>
       <c r="L317" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="M317">
-        <v>20708</v>
+        <v>19120</v>
       </c>
       <c r="N317">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O317">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P317" s="2">
         <v>44305</v>
@@ -20720,16 +20720,16 @@
         <v>29</v>
       </c>
       <c r="L318" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="M318">
-        <v>19120</v>
+        <v>17553</v>
       </c>
       <c r="N318">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="O318">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P318" s="2">
         <v>44305</v>
@@ -20784,16 +20784,16 @@
         <v>29</v>
       </c>
       <c r="L319" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="M319">
-        <v>17553</v>
+        <v>17869</v>
       </c>
       <c r="N319">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="O319">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P319" s="2">
         <v>44305</v>
@@ -20848,16 +20848,16 @@
         <v>29</v>
       </c>
       <c r="L320" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="M320">
-        <v>17869</v>
+        <v>8209</v>
       </c>
       <c r="N320">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="O320">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="P320" s="2">
         <v>44305</v>
@@ -20912,16 +20912,16 @@
         <v>29</v>
       </c>
       <c r="L321" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="M321">
-        <v>8209</v>
+        <v>6573</v>
       </c>
       <c r="N321">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="O321">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P321" s="2">
         <v>44305</v>
@@ -20960,11 +20960,11 @@
         <v>2021</v>
       </c>
       <c r="H322">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -20973,19 +20973,19 @@
         </is>
       </c>
       <c r="K322">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L322" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="M322">
-        <v>6573</v>
+        <v>21917</v>
       </c>
       <c r="N322">
-        <v>160</v>
+        <v>331</v>
       </c>
       <c r="O322">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P322" s="2">
         <v>44305</v>
@@ -21040,13 +21040,13 @@
         <v>30</v>
       </c>
       <c r="L323" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="M323">
-        <v>21917</v>
+        <v>19380</v>
       </c>
       <c r="N323">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="O323">
         <v>1.5</v>
@@ -21104,16 +21104,16 @@
         <v>30</v>
       </c>
       <c r="L324" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="M324">
-        <v>19380</v>
+        <v>19573</v>
       </c>
       <c r="N324">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="O324">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P324" s="2">
         <v>44305</v>
@@ -21168,13 +21168,13 @@
         <v>30</v>
       </c>
       <c r="L325" s="2">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="M325">
-        <v>19573</v>
+        <v>18446</v>
       </c>
       <c r="N325">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="O325">
         <v>1.6</v>
@@ -21232,16 +21232,16 @@
         <v>30</v>
       </c>
       <c r="L326" s="2">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="M326">
-        <v>18446</v>
+        <v>17764</v>
       </c>
       <c r="N326">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O326">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="P326" s="2">
         <v>44305</v>
@@ -21296,16 +21296,16 @@
         <v>30</v>
       </c>
       <c r="L327" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="M327">
-        <v>17764</v>
+        <v>8695</v>
       </c>
       <c r="N327">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="O327">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="P327" s="2">
         <v>44305</v>
@@ -21360,16 +21360,16 @@
         <v>30</v>
       </c>
       <c r="L328" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="M328">
-        <v>8695</v>
+        <v>7429</v>
       </c>
       <c r="N328">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O328">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="P328" s="2">
         <v>44305</v>
@@ -21408,11 +21408,11 @@
         <v>2021</v>
       </c>
       <c r="H329">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -21421,19 +21421,19 @@
         </is>
       </c>
       <c r="K329">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L329" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="M329">
-        <v>7429</v>
+        <v>20067</v>
       </c>
       <c r="N329">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="O329">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="P329" s="2">
         <v>44305</v>
@@ -21488,16 +21488,16 @@
         <v>31</v>
       </c>
       <c r="L330" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="M330">
-        <v>20067</v>
+        <v>16698</v>
       </c>
       <c r="N330">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="O330">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P330" s="2">
         <v>44305</v>
@@ -21552,16 +21552,16 @@
         <v>31</v>
       </c>
       <c r="L331" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="M331">
-        <v>16698</v>
+        <v>17818</v>
       </c>
       <c r="N331">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="O331">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P331" s="2">
         <v>44305</v>
@@ -21616,16 +21616,16 @@
         <v>31</v>
       </c>
       <c r="L332" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="M332">
-        <v>17818</v>
+        <v>18251</v>
       </c>
       <c r="N332">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="O332">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P332" s="2">
         <v>44305</v>
@@ -21680,16 +21680,16 @@
         <v>31</v>
       </c>
       <c r="L333" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="M333">
-        <v>18251</v>
+        <v>19183</v>
       </c>
       <c r="N333">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="O333">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P333" s="2">
         <v>44305</v>
@@ -21744,16 +21744,16 @@
         <v>31</v>
       </c>
       <c r="L334" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="M334">
-        <v>19183</v>
+        <v>10190</v>
       </c>
       <c r="N334">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="O334">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="P334" s="2">
         <v>44305</v>
@@ -21808,16 +21808,16 @@
         <v>31</v>
       </c>
       <c r="L335" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="M335">
-        <v>10190</v>
+        <v>10969</v>
       </c>
       <c r="N335">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="O335">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P335" s="2">
         <v>44305</v>
@@ -21856,11 +21856,11 @@
         <v>2021</v>
       </c>
       <c r="H336">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -21869,19 +21869,19 @@
         </is>
       </c>
       <c r="K336">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L336" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="M336">
-        <v>10969</v>
+        <v>26395</v>
       </c>
       <c r="N336">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="O336">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P336" s="2">
         <v>44305</v>
@@ -21936,16 +21936,16 @@
         <v>32</v>
       </c>
       <c r="L337" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="M337">
-        <v>26395</v>
+        <v>23338</v>
       </c>
       <c r="N337">
-        <v>550</v>
+        <v>637</v>
       </c>
       <c r="O337">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P337" s="2">
         <v>44305</v>
@@ -22000,13 +22000,13 @@
         <v>32</v>
       </c>
       <c r="L338" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="M338">
-        <v>23338</v>
+        <v>23800</v>
       </c>
       <c r="N338">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="O338">
         <v>2.7</v>
@@ -22064,16 +22064,16 @@
         <v>32</v>
       </c>
       <c r="L339" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="M339">
-        <v>23800</v>
+        <v>24332</v>
       </c>
       <c r="N339">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="O339">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P339" s="2">
         <v>44305</v>
@@ -22128,16 +22128,16 @@
         <v>32</v>
       </c>
       <c r="L340" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="M340">
-        <v>24332</v>
+        <v>25562</v>
       </c>
       <c r="N340">
-        <v>600</v>
+        <v>702</v>
       </c>
       <c r="O340">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P340" s="2">
         <v>44305</v>
@@ -22192,16 +22192,16 @@
         <v>32</v>
       </c>
       <c r="L341" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="M341">
-        <v>25562</v>
+        <v>15274</v>
       </c>
       <c r="N341">
-        <v>702</v>
+        <v>465</v>
       </c>
       <c r="O341">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P341" s="2">
         <v>44305</v>
@@ -22256,16 +22256,16 @@
         <v>32</v>
       </c>
       <c r="L342" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="M342">
-        <v>15274</v>
+        <v>14983</v>
       </c>
       <c r="N342">
-        <v>465</v>
+        <v>572</v>
       </c>
       <c r="O342">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="P342" s="2">
         <v>44305</v>
@@ -22304,11 +22304,11 @@
         <v>2021</v>
       </c>
       <c r="H343">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -22317,19 +22317,19 @@
         </is>
       </c>
       <c r="K343">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L343" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="M343">
-        <v>14983</v>
+        <v>35065</v>
       </c>
       <c r="N343">
-        <v>572</v>
+        <v>846</v>
       </c>
       <c r="O343">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="P343" s="2">
         <v>44305</v>
@@ -22384,16 +22384,16 @@
         <v>33</v>
       </c>
       <c r="L344" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="M344">
-        <v>35065</v>
+        <v>30928</v>
       </c>
       <c r="N344">
-        <v>846</v>
+        <v>799</v>
       </c>
       <c r="O344">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P344" s="2">
         <v>44305</v>
@@ -22448,16 +22448,16 @@
         <v>33</v>
       </c>
       <c r="L345" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="M345">
-        <v>30928</v>
+        <v>30744</v>
       </c>
       <c r="N345">
-        <v>799</v>
+        <v>851</v>
       </c>
       <c r="O345">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P345" s="2">
         <v>44305</v>
@@ -22512,16 +22512,16 @@
         <v>33</v>
       </c>
       <c r="L346" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="M346">
-        <v>30744</v>
+        <v>29823</v>
       </c>
       <c r="N346">
-        <v>851</v>
+        <v>780</v>
       </c>
       <c r="O346">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P346" s="2">
         <v>44305</v>
@@ -22576,16 +22576,16 @@
         <v>33</v>
       </c>
       <c r="L347" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="M347">
-        <v>29823</v>
+        <v>28861</v>
       </c>
       <c r="N347">
-        <v>780</v>
+        <v>950</v>
       </c>
       <c r="O347">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="P347" s="2">
         <v>44305</v>
@@ -22640,16 +22640,16 @@
         <v>33</v>
       </c>
       <c r="L348" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="M348">
-        <v>28861</v>
+        <v>16403</v>
       </c>
       <c r="N348">
-        <v>950</v>
+        <v>735</v>
       </c>
       <c r="O348">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="P348" s="2">
         <v>44305</v>
@@ -22704,16 +22704,16 @@
         <v>33</v>
       </c>
       <c r="L349" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="M349">
-        <v>16403</v>
+        <v>15896</v>
       </c>
       <c r="N349">
-        <v>735</v>
+        <v>697</v>
       </c>
       <c r="O349">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="P349" s="2">
         <v>44305</v>
@@ -22752,11 +22752,11 @@
         <v>2021</v>
       </c>
       <c r="H350">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -22765,19 +22765,19 @@
         </is>
       </c>
       <c r="K350">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L350" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="M350">
-        <v>15896</v>
+        <v>34259</v>
       </c>
       <c r="N350">
-        <v>697</v>
+        <v>1105</v>
       </c>
       <c r="O350">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P350" s="2">
         <v>44305</v>
@@ -22832,16 +22832,16 @@
         <v>34</v>
       </c>
       <c r="L351" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="M351">
-        <v>34259</v>
+        <v>29920</v>
       </c>
       <c r="N351">
-        <v>1105</v>
+        <v>1006</v>
       </c>
       <c r="O351">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P351" s="2">
         <v>44305</v>
@@ -22896,16 +22896,16 @@
         <v>34</v>
       </c>
       <c r="L352" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="M352">
-        <v>29920</v>
+        <v>31718</v>
       </c>
       <c r="N352">
-        <v>1006</v>
+        <v>1060</v>
       </c>
       <c r="O352">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P352" s="2">
         <v>44305</v>
@@ -22960,16 +22960,16 @@
         <v>34</v>
       </c>
       <c r="L353" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="M353">
-        <v>31718</v>
+        <v>30708</v>
       </c>
       <c r="N353">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="O353">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P353" s="2">
         <v>44305</v>
@@ -23024,13 +23024,13 @@
         <v>34</v>
       </c>
       <c r="L354" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="M354">
-        <v>30708</v>
+        <v>29056</v>
       </c>
       <c r="N354">
-        <v>1044</v>
+        <v>1000</v>
       </c>
       <c r="O354">
         <v>3.3</v>
@@ -23088,16 +23088,16 @@
         <v>34</v>
       </c>
       <c r="L355" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="M355">
-        <v>29056</v>
+        <v>16522</v>
       </c>
       <c r="N355">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="O355">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="P355" s="2">
         <v>44305</v>
@@ -23152,16 +23152,16 @@
         <v>34</v>
       </c>
       <c r="L356" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="M356">
-        <v>16522</v>
+        <v>14946</v>
       </c>
       <c r="N356">
-        <v>710</v>
+        <v>649</v>
       </c>
       <c r="O356">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="P356" s="2">
         <v>44305</v>
@@ -23200,11 +23200,11 @@
         <v>2021</v>
       </c>
       <c r="H357">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -23213,19 +23213,19 @@
         </is>
       </c>
       <c r="K357">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L357" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="M357">
-        <v>14946</v>
+        <v>35844</v>
       </c>
       <c r="N357">
-        <v>649</v>
+        <v>1105</v>
       </c>
       <c r="O357">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P357" s="2">
         <v>44305</v>
@@ -23280,16 +23280,16 @@
         <v>35</v>
       </c>
       <c r="L358" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="M358">
-        <v>35844</v>
+        <v>31964</v>
       </c>
       <c r="N358">
-        <v>1105</v>
+        <v>965</v>
       </c>
       <c r="O358">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P358" s="2">
         <v>44305</v>
@@ -23344,13 +23344,13 @@
         <v>35</v>
       </c>
       <c r="L359" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="M359">
-        <v>31964</v>
+        <v>33760</v>
       </c>
       <c r="N359">
-        <v>965</v>
+        <v>1001</v>
       </c>
       <c r="O359">
         <v>2.9</v>
@@ -23408,16 +23408,16 @@
         <v>35</v>
       </c>
       <c r="L360" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="M360">
-        <v>33760</v>
+        <v>32513</v>
       </c>
       <c r="N360">
-        <v>1001</v>
+        <v>869</v>
       </c>
       <c r="O360">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="P360" s="2">
         <v>44305</v>
@@ -23472,16 +23472,16 @@
         <v>35</v>
       </c>
       <c r="L361" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="M361">
-        <v>32513</v>
+        <v>32114</v>
       </c>
       <c r="N361">
-        <v>869</v>
+        <v>895</v>
       </c>
       <c r="O361">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P361" s="2">
         <v>44305</v>
@@ -23536,16 +23536,16 @@
         <v>35</v>
       </c>
       <c r="L362" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="M362">
-        <v>32114</v>
+        <v>17198</v>
       </c>
       <c r="N362">
-        <v>895</v>
+        <v>602</v>
       </c>
       <c r="O362">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P362" s="2">
         <v>44305</v>
@@ -23600,13 +23600,13 @@
         <v>35</v>
       </c>
       <c r="L363" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="M363">
-        <v>17198</v>
+        <v>13640</v>
       </c>
       <c r="N363">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="O363">
         <v>3.4</v>
@@ -23648,11 +23648,11 @@
         <v>2021</v>
       </c>
       <c r="H364">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-13</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -23661,19 +23661,19 @@
         </is>
       </c>
       <c r="K364">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L364" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="M364">
-        <v>13640</v>
+        <v>29420</v>
       </c>
       <c r="N364">
-        <v>476</v>
+        <v>863</v>
       </c>
       <c r="O364">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P364" s="2">
         <v>44305</v>
@@ -23728,16 +23728,16 @@
         <v>36</v>
       </c>
       <c r="L365" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="M365">
-        <v>29420</v>
+        <v>20975</v>
       </c>
       <c r="N365">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="O365">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="P365" s="2">
         <v>44305</v>
@@ -23792,16 +23792,16 @@
         <v>36</v>
       </c>
       <c r="L366" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="M366">
-        <v>20975</v>
+        <v>17599</v>
       </c>
       <c r="N366">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="O366">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="P366" s="2">
         <v>44305</v>
@@ -23856,16 +23856,16 @@
         <v>36</v>
       </c>
       <c r="L367" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="M367">
-        <v>17599</v>
+        <v>9908</v>
       </c>
       <c r="N367">
-        <v>805</v>
+        <v>624</v>
       </c>
       <c r="O367">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="P367" s="2">
         <v>44305</v>
@@ -23920,16 +23920,16 @@
         <v>36</v>
       </c>
       <c r="L368" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="M368">
-        <v>9908</v>
+        <v>10614</v>
       </c>
       <c r="N368">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="O368">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="P368" s="2">
         <v>44305</v>
@@ -23984,16 +23984,16 @@
         <v>36</v>
       </c>
       <c r="L369" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="M369">
-        <v>10614</v>
+        <v>10261</v>
       </c>
       <c r="N369">
-        <v>697</v>
+        <v>610</v>
       </c>
       <c r="O369">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="P369" s="2">
         <v>44305</v>
@@ -24048,16 +24048,16 @@
         <v>36</v>
       </c>
       <c r="L370" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="M370">
-        <v>10261</v>
+        <v>10702</v>
       </c>
       <c r="N370">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="O370">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="P370" s="2">
         <v>44305</v>
@@ -24096,11 +24096,11 @@
         <v>2021</v>
       </c>
       <c r="H371">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>2021-13</t>
+          <t>2021-14</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -24109,19 +24109,19 @@
         </is>
       </c>
       <c r="K371">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L371" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="M371">
-        <v>10702</v>
+        <v>15996</v>
       </c>
       <c r="N371">
-        <v>650</v>
+        <v>713</v>
       </c>
       <c r="O371">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="P371" s="2">
         <v>44305</v>
@@ -24176,16 +24176,16 @@
         <v>37</v>
       </c>
       <c r="L372" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="M372">
-        <v>15996</v>
+        <v>30439</v>
       </c>
       <c r="N372">
-        <v>713</v>
+        <v>886</v>
       </c>
       <c r="O372">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="P372" s="2">
         <v>44305</v>
@@ -24240,16 +24240,16 @@
         <v>37</v>
       </c>
       <c r="L373" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="M373">
-        <v>30439</v>
+        <v>25305</v>
       </c>
       <c r="N373">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="O373">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P373" s="2">
         <v>44305</v>
@@ -24304,16 +24304,16 @@
         <v>37</v>
       </c>
       <c r="L374" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="M374">
-        <v>25305</v>
+        <v>22305</v>
       </c>
       <c r="N374">
-        <v>846</v>
+        <v>765</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P374" s="2">
         <v>44305</v>
@@ -24368,16 +24368,16 @@
         <v>37</v>
       </c>
       <c r="L375" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="M375">
-        <v>22305</v>
+        <v>23344</v>
       </c>
       <c r="N375">
-        <v>765</v>
+        <v>711</v>
       </c>
       <c r="O375">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P375" s="2">
         <v>44305</v>
@@ -24432,16 +24432,16 @@
         <v>37</v>
       </c>
       <c r="L376" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="M376">
-        <v>23344</v>
+        <v>12601</v>
       </c>
       <c r="N376">
-        <v>711</v>
+        <v>495</v>
       </c>
       <c r="O376">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P376" s="2">
         <v>44305</v>
@@ -24496,16 +24496,16 @@
         <v>37</v>
       </c>
       <c r="L377" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="M377">
-        <v>12601</v>
+        <v>10727</v>
       </c>
       <c r="N377">
-        <v>495</v>
+        <v>394</v>
       </c>
       <c r="O377">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P377" s="2">
         <v>44305</v>
@@ -24544,11 +24544,11 @@
         <v>2021</v>
       </c>
       <c r="H378">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>2021-14</t>
+          <t>2021-15</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -24557,19 +24557,19 @@
         </is>
       </c>
       <c r="K378">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L378" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="M378">
-        <v>10727</v>
+        <v>26937</v>
       </c>
       <c r="N378">
-        <v>394</v>
+        <v>736</v>
       </c>
       <c r="O378">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P378" s="2">
         <v>44305</v>
@@ -24624,13 +24624,13 @@
         <v>38</v>
       </c>
       <c r="L379" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="M379">
-        <v>26937</v>
+        <v>20914</v>
       </c>
       <c r="N379">
-        <v>736</v>
+        <v>591</v>
       </c>
       <c r="O379">
         <v>2.7</v>
@@ -24688,13 +24688,13 @@
         <v>38</v>
       </c>
       <c r="L380" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="M380">
-        <v>20914</v>
+        <v>21297</v>
       </c>
       <c r="N380">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="O380">
         <v>2.7</v>
@@ -24752,13 +24752,13 @@
         <v>38</v>
       </c>
       <c r="L381" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="M381">
-        <v>21297</v>
+        <v>19119</v>
       </c>
       <c r="N381">
-        <v>602</v>
+        <v>531</v>
       </c>
       <c r="O381">
         <v>2.7</v>
@@ -24816,16 +24816,16 @@
         <v>38</v>
       </c>
       <c r="L382" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="M382">
-        <v>19119</v>
+        <v>17378</v>
       </c>
       <c r="N382">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="O382">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P382" s="2">
         <v>44305</v>
@@ -24880,16 +24880,16 @@
         <v>38</v>
       </c>
       <c r="L383" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="M383">
-        <v>17378</v>
+        <v>8420</v>
       </c>
       <c r="N383">
-        <v>550</v>
+        <v>234</v>
       </c>
       <c r="O383">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P383" s="2">
         <v>44305</v>
@@ -24944,82 +24944,18 @@
         <v>38</v>
       </c>
       <c r="L384" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="M384">
-        <v>8420</v>
+        <v>2168</v>
       </c>
       <c r="N384">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="O384">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P384" s="2">
-        <v>44305</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>nation</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>norge</t>
-        </is>
-      </c>
-      <c r="D385">
-        <v>2020</v>
-      </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="G385">
-        <v>2021</v>
-      </c>
-      <c r="H385">
-        <v>15</v>
-      </c>
-      <c r="I385" t="inlineStr">
-        <is>
-          <t>2021-15</t>
-        </is>
-      </c>
-      <c r="J385" t="inlineStr">
-        <is>
-          <t>2020/2021</t>
-        </is>
-      </c>
-      <c r="K385">
-        <v>38</v>
-      </c>
-      <c r="L385" s="2">
-        <v>44304</v>
-      </c>
-      <c r="M385">
-        <v>2168</v>
-      </c>
-      <c r="N385">
-        <v>62</v>
-      </c>
-      <c r="O385">
-        <v>2.8</v>
-      </c>
-      <c r="P385" s="2">
         <v>44305</v>
       </c>
     </row>
